--- a/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.80332542513217</v>
+        <v>20.80332542513218</v>
       </c>
       <c r="C2">
-        <v>17.24946877795394</v>
+        <v>17.24946877795396</v>
       </c>
       <c r="D2">
-        <v>3.23574364204177</v>
+        <v>3.235743642041855</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.07321961913026</v>
+        <v>29.07321961913024</v>
       </c>
       <c r="G2">
-        <v>21.19044149903842</v>
+        <v>21.19044149903841</v>
       </c>
       <c r="H2">
-        <v>16.75240808992639</v>
+        <v>16.75240808992638</v>
       </c>
       <c r="I2">
-        <v>10.11735913921114</v>
+        <v>10.11735913921119</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.84305047747848</v>
+        <v>19.8430504774785</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.40256568368612</v>
+        <v>19.40256568368628</v>
       </c>
       <c r="C3">
-        <v>16.0732222244348</v>
+        <v>16.07322222443479</v>
       </c>
       <c r="D3">
-        <v>3.120726688625151</v>
+        <v>3.120726688625052</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.67940070133724</v>
+        <v>27.67940070133718</v>
       </c>
       <c r="G3">
-        <v>20.35131598419173</v>
+        <v>20.35131598419159</v>
       </c>
       <c r="H3">
-        <v>16.45341240268301</v>
+        <v>16.45341240268278</v>
       </c>
       <c r="I3">
-        <v>9.712108671332087</v>
+        <v>9.712108671332114</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.4656678854774</v>
+        <v>18.46566788547747</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.4960465870752</v>
+        <v>18.49604658707526</v>
       </c>
       <c r="C4">
-        <v>15.31347176231166</v>
+        <v>15.31347176231146</v>
       </c>
       <c r="D4">
-        <v>3.048000664275152</v>
+        <v>3.048000664275158</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.82864842102003</v>
+        <v>26.82864842102006</v>
       </c>
       <c r="G4">
-        <v>19.84909446676841</v>
+        <v>19.84909446676846</v>
       </c>
       <c r="H4">
-        <v>16.29186804893751</v>
+        <v>16.29186804893752</v>
       </c>
       <c r="I4">
-        <v>9.469782769415644</v>
+        <v>9.469782769415568</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.57767862220564</v>
+        <v>17.57767862220562</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.11483293758974</v>
+        <v>18.11483293758969</v>
       </c>
       <c r="C5">
-        <v>14.99430924726015</v>
+        <v>14.99430924726014</v>
       </c>
       <c r="D5">
-        <v>3.01785175274803</v>
+        <v>3.017851752748177</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,13 +541,13 @@
         <v>26.48357442427887</v>
       </c>
       <c r="G5">
-        <v>19.64784208674092</v>
+        <v>19.64784208674099</v>
       </c>
       <c r="H5">
-        <v>16.23135980855167</v>
+        <v>16.23135980855173</v>
       </c>
       <c r="I5">
-        <v>9.372693775041832</v>
+        <v>9.372693775041778</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>17.20501863898968</v>
+        <v>17.20501863898969</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.0508167339615</v>
+        <v>18.05081673396149</v>
       </c>
       <c r="C6">
-        <v>14.94073196373552</v>
+        <v>14.94073196373539</v>
       </c>
       <c r="D6">
-        <v>3.012815160107461</v>
+        <v>3.012815160107703</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.42638390730481</v>
+        <v>26.42638390730485</v>
       </c>
       <c r="G6">
-        <v>19.61463433181627</v>
+        <v>19.61463433181634</v>
       </c>
       <c r="H6">
-        <v>16.22162722845864</v>
+        <v>16.22162722845869</v>
       </c>
       <c r="I6">
-        <v>9.356673487338785</v>
+        <v>9.356673487338771</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>17.14248197923395</v>
+        <v>17.14248197923396</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.49095333414993</v>
+        <v>18.4909533341499</v>
       </c>
       <c r="C7">
-        <v>15.30920627670294</v>
+        <v>15.30920627670286</v>
       </c>
       <c r="D7">
-        <v>3.047596115555132</v>
+        <v>3.047596115555284</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.82398759559327</v>
+        <v>26.82398759559329</v>
       </c>
       <c r="G7">
-        <v>19.84636632017744</v>
+        <v>19.84636632017748</v>
       </c>
       <c r="H7">
-        <v>16.29103076383826</v>
+        <v>16.2910307638383</v>
       </c>
       <c r="I7">
-        <v>9.468466626563318</v>
+        <v>9.468466626563307</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.57269672836841</v>
+        <v>17.57269672836844</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.32990736361807</v>
+        <v>20.32990736361811</v>
       </c>
       <c r="C8">
-        <v>16.8516120156258</v>
+        <v>16.85161201562576</v>
       </c>
       <c r="D8">
-        <v>3.19653173118224</v>
+        <v>3.19653173118212</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.59176526982802</v>
+        <v>28.59176526982801</v>
       </c>
       <c r="G8">
-        <v>20.89848795868568</v>
+        <v>20.89848795868566</v>
       </c>
       <c r="H8">
-        <v>16.64461177192739</v>
+        <v>16.64461177192738</v>
       </c>
       <c r="I8">
-        <v>9.976291864488434</v>
+        <v>9.976291864488415</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>19.37679657681715</v>
+        <v>19.37679657681714</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.57362234984179</v>
+        <v>23.57362234984181</v>
       </c>
       <c r="C9">
-        <v>19.58456382638598</v>
+        <v>19.58456382638611</v>
       </c>
       <c r="D9">
-        <v>3.471342387698305</v>
+        <v>3.471342387698208</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.08737831368951</v>
+        <v>32.08737831368953</v>
       </c>
       <c r="G9">
-        <v>23.0602242449305</v>
+        <v>23.06022424493048</v>
       </c>
       <c r="H9">
-        <v>17.52208510177976</v>
+        <v>17.52208510177975</v>
       </c>
       <c r="I9">
-        <v>11.02338313776061</v>
+        <v>11.02338313776062</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.74521759864272</v>
+        <v>25.74521759864273</v>
       </c>
       <c r="C10">
-        <v>21.42410224044869</v>
+        <v>21.42410224044871</v>
       </c>
       <c r="D10">
-        <v>3.662277675918774</v>
+        <v>3.662277675918768</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,13 +731,13 @@
         <v>34.66481515601379</v>
       </c>
       <c r="G10">
-        <v>24.70517164679222</v>
+        <v>24.70517164679223</v>
       </c>
       <c r="H10">
-        <v>18.29112878512135</v>
+        <v>18.29112878512139</v>
       </c>
       <c r="I10">
-        <v>11.82523287938728</v>
+        <v>11.82523287938729</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.76027182369299</v>
+        <v>24.76027182369298</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.68955773668972</v>
+        <v>26.68955773668967</v>
       </c>
       <c r="C11">
-        <v>22.22679710742742</v>
+        <v>22.22679710742737</v>
       </c>
       <c r="D11">
-        <v>3.746742537631902</v>
+        <v>3.746742537632001</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.83953325389086</v>
+        <v>35.83953325389081</v>
       </c>
       <c r="G11">
-        <v>25.46613218305431</v>
+        <v>25.46613218305426</v>
       </c>
       <c r="H11">
-        <v>18.67058283405263</v>
+        <v>18.67058283405257</v>
       </c>
       <c r="I11">
-        <v>12.26794703927166</v>
+        <v>12.26794703927164</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.71150930993788</v>
+        <v>25.71150930993786</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.04111535834828</v>
+        <v>27.04111535834834</v>
       </c>
       <c r="C12">
-        <v>22.5260760624475</v>
+        <v>22.52607606244729</v>
       </c>
       <c r="D12">
-        <v>3.778387053935174</v>
+        <v>3.778387053935131</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.284839432508</v>
+        <v>36.28483943250791</v>
       </c>
       <c r="G12">
-        <v>25.75621567396217</v>
+        <v>25.75621567396211</v>
       </c>
       <c r="H12">
-        <v>18.81875566336119</v>
+        <v>18.81875566336114</v>
       </c>
       <c r="I12">
-        <v>12.46145310209815</v>
+        <v>12.46145310209818</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>26.0666941851927</v>
+        <v>26.06669418519266</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.96566621852898</v>
+        <v>26.96566621852893</v>
       </c>
       <c r="C13">
-        <v>22.46182548634453</v>
+        <v>22.46182548634448</v>
       </c>
       <c r="D13">
-        <v>3.771586882571651</v>
+        <v>3.771586882571799</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.18891053113387</v>
+        <v>36.18891053113382</v>
       </c>
       <c r="G13">
-        <v>25.69365300540688</v>
+        <v>25.69365300540685</v>
       </c>
       <c r="H13">
-        <v>18.78664087557207</v>
+        <v>18.78664087557212</v>
       </c>
       <c r="I13">
-        <v>12.4198375367988</v>
+        <v>12.41983753679874</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.9904170638516</v>
+        <v>25.99041706385156</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.71860039030908</v>
+        <v>26.71860039030901</v>
       </c>
       <c r="C14">
-        <v>22.25151147614579</v>
+        <v>22.25151147614572</v>
       </c>
       <c r="D14">
-        <v>3.749352739517555</v>
+        <v>3.749352739517643</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.87615828761167</v>
+        <v>35.87615828761155</v>
       </c>
       <c r="G14">
-        <v>25.48995811370771</v>
+        <v>25.48995811370762</v>
       </c>
       <c r="H14">
-        <v>18.68268192451487</v>
+        <v>18.68268192451484</v>
       </c>
       <c r="I14">
         <v>12.28389409466956</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.74082944889372</v>
+        <v>25.74082944889368</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.56648521974995</v>
+        <v>26.56648521974983</v>
       </c>
       <c r="C15">
-        <v>22.12208510704555</v>
+        <v>22.12208510704561</v>
       </c>
       <c r="D15">
-        <v>3.735689520587991</v>
+        <v>3.735689520588021</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.68465542721748</v>
+        <v>35.68465542721752</v>
       </c>
       <c r="G15">
-        <v>25.36544399230987</v>
+        <v>25.36544399230992</v>
       </c>
       <c r="H15">
-        <v>18.61959471499262</v>
+        <v>18.61959471499273</v>
       </c>
       <c r="I15">
-        <v>12.20044594972911</v>
+        <v>12.2004459497291</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>25.58730483359763</v>
+        <v>25.58730483359759</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.68264474841313</v>
+        <v>25.68264474841314</v>
       </c>
       <c r="C16">
-        <v>21.37097606366191</v>
+        <v>21.37097606366193</v>
       </c>
       <c r="D16">
-        <v>3.656709761788212</v>
+        <v>3.656709761788218</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.5880993031328</v>
+        <v>34.58809930313272</v>
       </c>
       <c r="G16">
-        <v>24.65570313609627</v>
+        <v>24.6557031360962</v>
       </c>
       <c r="H16">
-        <v>18.26694512614657</v>
+        <v>18.26694512614646</v>
       </c>
       <c r="I16">
-        <v>11.8010431943263</v>
+        <v>11.80104319432627</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.69738494583348</v>
+        <v>24.6973849458335</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.12943462450335</v>
+        <v>25.12943462450347</v>
       </c>
       <c r="C17">
-        <v>20.90160604672847</v>
+        <v>20.9016060467284</v>
       </c>
       <c r="D17">
-        <v>3.607646648764921</v>
+        <v>3.607646648765023</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.91603697698935</v>
+        <v>33.9160369769894</v>
       </c>
       <c r="G17">
-        <v>24.22359525494631</v>
+        <v>24.22359525494634</v>
       </c>
       <c r="H17">
-        <v>18.0583438842181</v>
+        <v>18.05834388421808</v>
       </c>
       <c r="I17">
-        <v>11.58995350934542</v>
+        <v>11.58995350934546</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>24.1421504881855</v>
+        <v>24.14215048818553</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.80713133680325</v>
+        <v>24.80713133680327</v>
       </c>
       <c r="C18">
-        <v>20.62841049716047</v>
+        <v>20.62841049716048</v>
       </c>
       <c r="D18">
-        <v>3.579201175717899</v>
+        <v>3.579201175717904</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.52967891640029</v>
+        <v>33.52967891640021</v>
       </c>
       <c r="G18">
-        <v>23.97624013739944</v>
+        <v>23.97624013739937</v>
       </c>
       <c r="H18">
-        <v>17.94113503620681</v>
+        <v>17.94113503620672</v>
       </c>
       <c r="I18">
-        <v>11.46928131755074</v>
+        <v>11.46928131755073</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.81928054759499</v>
+        <v>23.819280547595</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.69729263667327</v>
+        <v>24.69729263667325</v>
       </c>
       <c r="C19">
-        <v>20.5353506986813</v>
+        <v>20.53535069868132</v>
       </c>
       <c r="D19">
-        <v>3.569531228859467</v>
+        <v>3.569531228859519</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.39889549039363</v>
+        <v>33.39889549039356</v>
       </c>
       <c r="G19">
-        <v>23.89269094884558</v>
+        <v>23.89269094884551</v>
       </c>
       <c r="H19">
-        <v>17.90191989615807</v>
+        <v>17.90191989615799</v>
       </c>
       <c r="I19">
         <v>11.42854807538934</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.70935003921888</v>
+        <v>23.70935003921892</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.18874881768172</v>
+        <v>25.18874881768174</v>
       </c>
       <c r="C20">
-        <v>20.95190367178536</v>
+        <v>20.95190367178535</v>
       </c>
       <c r="D20">
-        <v>3.612892844339762</v>
+        <v>3.612892844339742</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.98755833980036</v>
+        <v>33.98755833980037</v>
       </c>
       <c r="G20">
         <v>24.2694710340688</v>
       </c>
       <c r="H20">
-        <v>18.08026128202276</v>
+        <v>18.08026128202277</v>
       </c>
       <c r="I20">
-        <v>11.6123469377332</v>
+        <v>11.61234693773321</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>24.20161768905936</v>
+        <v>24.20161768905941</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.79133178906498</v>
+        <v>26.79133178906493</v>
       </c>
       <c r="C21">
         <v>22.31341102126447</v>
       </c>
       <c r="D21">
-        <v>3.755892637729909</v>
+        <v>3.755892637729987</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.96800683700053</v>
+        <v>35.96800683700058</v>
       </c>
       <c r="G21">
-        <v>25.54973483690267</v>
+        <v>25.54973483690272</v>
       </c>
       <c r="H21">
-        <v>18.71309366759114</v>
+        <v>18.71309366759123</v>
       </c>
       <c r="I21">
-        <v>12.3238607465026</v>
+        <v>12.32386074650256</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.81427319151694</v>
+        <v>25.8142731915169</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1178,22 +1178,22 @@
         <v>23.17605513947494</v>
       </c>
       <c r="D22">
-        <v>3.847371347996022</v>
+        <v>3.847371347995999</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.28099745399165</v>
+        <v>37.28099745399152</v>
       </c>
       <c r="G22">
-        <v>26.39777872418492</v>
+        <v>26.39777872418485</v>
       </c>
       <c r="H22">
-        <v>19.15293064054045</v>
+        <v>19.1529306405404</v>
       </c>
       <c r="I22">
-        <v>12.88471707949954</v>
+        <v>12.88471707949951</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.83910139769386</v>
+        <v>26.83910139769381</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.26647007960604</v>
+        <v>27.26647007960595</v>
       </c>
       <c r="C23">
-        <v>22.71805202121595</v>
+        <v>22.71805202121599</v>
       </c>
       <c r="D23">
-        <v>3.798726307482535</v>
+        <v>3.79872630748245</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.5725282205493</v>
+        <v>36.57252822054934</v>
       </c>
       <c r="G23">
-        <v>25.94407286016433</v>
+        <v>25.94407286016436</v>
       </c>
       <c r="H23">
-        <v>18.91570016696543</v>
+        <v>18.91570016696547</v>
       </c>
       <c r="I23">
-        <v>12.58603607152666</v>
+        <v>12.5860360715267</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>26.2946848050894</v>
+        <v>26.29468480508936</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.1619461416283</v>
+        <v>25.16194614162818</v>
       </c>
       <c r="C24">
-        <v>20.92917456168836</v>
+        <v>20.92917456168833</v>
       </c>
       <c r="D24">
-        <v>3.610521782205819</v>
+        <v>3.610521782205869</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.95522348038378</v>
+        <v>33.95522348038381</v>
       </c>
       <c r="G24">
-        <v>24.24872727000778</v>
+        <v>24.24872727000781</v>
       </c>
       <c r="H24">
-        <v>18.07034397466432</v>
+        <v>18.07034397466441</v>
       </c>
       <c r="I24">
-        <v>11.60222074030192</v>
+        <v>11.6022207403019</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>24.17474398498577</v>
+        <v>24.17474398498571</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.73400177726169</v>
+        <v>22.73400177726171</v>
       </c>
       <c r="C25">
-        <v>18.87553902263511</v>
+        <v>18.87553902263517</v>
       </c>
       <c r="D25">
-        <v>3.398906632794839</v>
+        <v>3.398906632794833</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.13982979874081</v>
+        <v>31.13982979874089</v>
       </c>
       <c r="G25">
-        <v>22.46537494922988</v>
+        <v>22.46537494922991</v>
       </c>
       <c r="H25">
-        <v>17.26372499978681</v>
+        <v>17.26372499978686</v>
       </c>
       <c r="I25">
-        <v>10.73459010922782</v>
+        <v>10.73459010922784</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.7527546863418</v>
+        <v>21.75275468634183</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.80332542513218</v>
+        <v>20.80332542513217</v>
       </c>
       <c r="C2">
-        <v>17.24946877795396</v>
+        <v>17.24946877795394</v>
       </c>
       <c r="D2">
-        <v>3.235743642041855</v>
+        <v>3.23574364204177</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.07321961913024</v>
+        <v>29.07321961913026</v>
       </c>
       <c r="G2">
-        <v>21.19044149903841</v>
+        <v>21.19044149903842</v>
       </c>
       <c r="H2">
-        <v>16.75240808992638</v>
+        <v>16.75240808992639</v>
       </c>
       <c r="I2">
-        <v>10.11735913921119</v>
+        <v>10.11735913921114</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.8430504774785</v>
+        <v>19.84305047747848</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.40256568368628</v>
+        <v>19.40256568368612</v>
       </c>
       <c r="C3">
-        <v>16.07322222443479</v>
+        <v>16.0732222244348</v>
       </c>
       <c r="D3">
-        <v>3.120726688625052</v>
+        <v>3.120726688625151</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.67940070133718</v>
+        <v>27.67940070133724</v>
       </c>
       <c r="G3">
-        <v>20.35131598419159</v>
+        <v>20.35131598419173</v>
       </c>
       <c r="H3">
-        <v>16.45341240268278</v>
+        <v>16.45341240268301</v>
       </c>
       <c r="I3">
-        <v>9.712108671332114</v>
+        <v>9.712108671332087</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.46566788547747</v>
+        <v>18.4656678854774</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.49604658707526</v>
+        <v>18.4960465870752</v>
       </c>
       <c r="C4">
-        <v>15.31347176231146</v>
+        <v>15.31347176231166</v>
       </c>
       <c r="D4">
-        <v>3.048000664275158</v>
+        <v>3.048000664275152</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.82864842102006</v>
+        <v>26.82864842102003</v>
       </c>
       <c r="G4">
-        <v>19.84909446676846</v>
+        <v>19.84909446676841</v>
       </c>
       <c r="H4">
-        <v>16.29186804893752</v>
+        <v>16.29186804893751</v>
       </c>
       <c r="I4">
-        <v>9.469782769415568</v>
+        <v>9.469782769415644</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.57767862220562</v>
+        <v>17.57767862220564</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.11483293758969</v>
+        <v>18.11483293758974</v>
       </c>
       <c r="C5">
-        <v>14.99430924726014</v>
+        <v>14.99430924726015</v>
       </c>
       <c r="D5">
-        <v>3.017851752748177</v>
+        <v>3.01785175274803</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -541,13 +541,13 @@
         <v>26.48357442427887</v>
       </c>
       <c r="G5">
-        <v>19.64784208674099</v>
+        <v>19.64784208674092</v>
       </c>
       <c r="H5">
-        <v>16.23135980855173</v>
+        <v>16.23135980855167</v>
       </c>
       <c r="I5">
-        <v>9.372693775041778</v>
+        <v>9.372693775041832</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>17.20501863898969</v>
+        <v>17.20501863898968</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.05081673396149</v>
+        <v>18.0508167339615</v>
       </c>
       <c r="C6">
-        <v>14.94073196373539</v>
+        <v>14.94073196373552</v>
       </c>
       <c r="D6">
-        <v>3.012815160107703</v>
+        <v>3.012815160107461</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.42638390730485</v>
+        <v>26.42638390730481</v>
       </c>
       <c r="G6">
-        <v>19.61463433181634</v>
+        <v>19.61463433181627</v>
       </c>
       <c r="H6">
-        <v>16.22162722845869</v>
+        <v>16.22162722845864</v>
       </c>
       <c r="I6">
-        <v>9.356673487338771</v>
+        <v>9.356673487338785</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>17.14248197923396</v>
+        <v>17.14248197923395</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.4909533341499</v>
+        <v>18.49095333414993</v>
       </c>
       <c r="C7">
-        <v>15.30920627670286</v>
+        <v>15.30920627670294</v>
       </c>
       <c r="D7">
-        <v>3.047596115555284</v>
+        <v>3.047596115555132</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.82398759559329</v>
+        <v>26.82398759559327</v>
       </c>
       <c r="G7">
-        <v>19.84636632017748</v>
+        <v>19.84636632017744</v>
       </c>
       <c r="H7">
-        <v>16.2910307638383</v>
+        <v>16.29103076383826</v>
       </c>
       <c r="I7">
-        <v>9.468466626563307</v>
+        <v>9.468466626563318</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.57269672836844</v>
+        <v>17.57269672836841</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.32990736361811</v>
+        <v>20.32990736361807</v>
       </c>
       <c r="C8">
-        <v>16.85161201562576</v>
+        <v>16.8516120156258</v>
       </c>
       <c r="D8">
-        <v>3.19653173118212</v>
+        <v>3.19653173118224</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.59176526982801</v>
+        <v>28.59176526982802</v>
       </c>
       <c r="G8">
-        <v>20.89848795868566</v>
+        <v>20.89848795868568</v>
       </c>
       <c r="H8">
-        <v>16.64461177192738</v>
+        <v>16.64461177192739</v>
       </c>
       <c r="I8">
-        <v>9.976291864488415</v>
+        <v>9.976291864488434</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>19.37679657681714</v>
+        <v>19.37679657681715</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.57362234984181</v>
+        <v>23.57362234984179</v>
       </c>
       <c r="C9">
-        <v>19.58456382638611</v>
+        <v>19.58456382638598</v>
       </c>
       <c r="D9">
-        <v>3.471342387698208</v>
+        <v>3.471342387698305</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.08737831368953</v>
+        <v>32.08737831368951</v>
       </c>
       <c r="G9">
-        <v>23.06022424493048</v>
+        <v>23.0602242449305</v>
       </c>
       <c r="H9">
-        <v>17.52208510177975</v>
+        <v>17.52208510177976</v>
       </c>
       <c r="I9">
-        <v>11.02338313776062</v>
+        <v>11.02338313776061</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.74521759864273</v>
+        <v>25.74521759864272</v>
       </c>
       <c r="C10">
-        <v>21.42410224044871</v>
+        <v>21.42410224044869</v>
       </c>
       <c r="D10">
-        <v>3.662277675918768</v>
+        <v>3.662277675918774</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,13 +731,13 @@
         <v>34.66481515601379</v>
       </c>
       <c r="G10">
-        <v>24.70517164679223</v>
+        <v>24.70517164679222</v>
       </c>
       <c r="H10">
-        <v>18.29112878512139</v>
+        <v>18.29112878512135</v>
       </c>
       <c r="I10">
-        <v>11.82523287938729</v>
+        <v>11.82523287938728</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.76027182369298</v>
+        <v>24.76027182369299</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.68955773668967</v>
+        <v>26.68955773668972</v>
       </c>
       <c r="C11">
-        <v>22.22679710742737</v>
+        <v>22.22679710742742</v>
       </c>
       <c r="D11">
-        <v>3.746742537632001</v>
+        <v>3.746742537631902</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.83953325389081</v>
+        <v>35.83953325389086</v>
       </c>
       <c r="G11">
-        <v>25.46613218305426</v>
+        <v>25.46613218305431</v>
       </c>
       <c r="H11">
-        <v>18.67058283405257</v>
+        <v>18.67058283405263</v>
       </c>
       <c r="I11">
-        <v>12.26794703927164</v>
+        <v>12.26794703927166</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.71150930993786</v>
+        <v>25.71150930993788</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.04111535834834</v>
+        <v>27.04111535834828</v>
       </c>
       <c r="C12">
-        <v>22.52607606244729</v>
+        <v>22.5260760624475</v>
       </c>
       <c r="D12">
-        <v>3.778387053935131</v>
+        <v>3.778387053935174</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.28483943250791</v>
+        <v>36.284839432508</v>
       </c>
       <c r="G12">
-        <v>25.75621567396211</v>
+        <v>25.75621567396217</v>
       </c>
       <c r="H12">
-        <v>18.81875566336114</v>
+        <v>18.81875566336119</v>
       </c>
       <c r="I12">
-        <v>12.46145310209818</v>
+        <v>12.46145310209815</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>26.06669418519266</v>
+        <v>26.0666941851927</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.96566621852893</v>
+        <v>26.96566621852898</v>
       </c>
       <c r="C13">
-        <v>22.46182548634448</v>
+        <v>22.46182548634453</v>
       </c>
       <c r="D13">
-        <v>3.771586882571799</v>
+        <v>3.771586882571651</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.18891053113382</v>
+        <v>36.18891053113387</v>
       </c>
       <c r="G13">
-        <v>25.69365300540685</v>
+        <v>25.69365300540688</v>
       </c>
       <c r="H13">
-        <v>18.78664087557212</v>
+        <v>18.78664087557207</v>
       </c>
       <c r="I13">
-        <v>12.41983753679874</v>
+        <v>12.4198375367988</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.99041706385156</v>
+        <v>25.9904170638516</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.71860039030901</v>
+        <v>26.71860039030908</v>
       </c>
       <c r="C14">
-        <v>22.25151147614572</v>
+        <v>22.25151147614579</v>
       </c>
       <c r="D14">
-        <v>3.749352739517643</v>
+        <v>3.749352739517555</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.87615828761155</v>
+        <v>35.87615828761167</v>
       </c>
       <c r="G14">
-        <v>25.48995811370762</v>
+        <v>25.48995811370771</v>
       </c>
       <c r="H14">
-        <v>18.68268192451484</v>
+        <v>18.68268192451487</v>
       </c>
       <c r="I14">
         <v>12.28389409466956</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.74082944889368</v>
+        <v>25.74082944889372</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.56648521974983</v>
+        <v>26.56648521974995</v>
       </c>
       <c r="C15">
-        <v>22.12208510704561</v>
+        <v>22.12208510704555</v>
       </c>
       <c r="D15">
-        <v>3.735689520588021</v>
+        <v>3.735689520587991</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.68465542721752</v>
+        <v>35.68465542721748</v>
       </c>
       <c r="G15">
-        <v>25.36544399230992</v>
+        <v>25.36544399230987</v>
       </c>
       <c r="H15">
-        <v>18.61959471499273</v>
+        <v>18.61959471499262</v>
       </c>
       <c r="I15">
-        <v>12.2004459497291</v>
+        <v>12.20044594972911</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>25.58730483359759</v>
+        <v>25.58730483359763</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.68264474841314</v>
+        <v>25.68264474841313</v>
       </c>
       <c r="C16">
-        <v>21.37097606366193</v>
+        <v>21.37097606366191</v>
       </c>
       <c r="D16">
-        <v>3.656709761788218</v>
+        <v>3.656709761788212</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.58809930313272</v>
+        <v>34.5880993031328</v>
       </c>
       <c r="G16">
-        <v>24.6557031360962</v>
+        <v>24.65570313609627</v>
       </c>
       <c r="H16">
-        <v>18.26694512614646</v>
+        <v>18.26694512614657</v>
       </c>
       <c r="I16">
-        <v>11.80104319432627</v>
+        <v>11.8010431943263</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.6973849458335</v>
+        <v>24.69738494583348</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.12943462450347</v>
+        <v>25.12943462450335</v>
       </c>
       <c r="C17">
-        <v>20.9016060467284</v>
+        <v>20.90160604672847</v>
       </c>
       <c r="D17">
-        <v>3.607646648765023</v>
+        <v>3.607646648764921</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.9160369769894</v>
+        <v>33.91603697698935</v>
       </c>
       <c r="G17">
-        <v>24.22359525494634</v>
+        <v>24.22359525494631</v>
       </c>
       <c r="H17">
-        <v>18.05834388421808</v>
+        <v>18.0583438842181</v>
       </c>
       <c r="I17">
-        <v>11.58995350934546</v>
+        <v>11.58995350934542</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>24.14215048818553</v>
+        <v>24.1421504881855</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.80713133680327</v>
+        <v>24.80713133680325</v>
       </c>
       <c r="C18">
-        <v>20.62841049716048</v>
+        <v>20.62841049716047</v>
       </c>
       <c r="D18">
-        <v>3.579201175717904</v>
+        <v>3.579201175717899</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.52967891640021</v>
+        <v>33.52967891640029</v>
       </c>
       <c r="G18">
-        <v>23.97624013739937</v>
+        <v>23.97624013739944</v>
       </c>
       <c r="H18">
-        <v>17.94113503620672</v>
+        <v>17.94113503620681</v>
       </c>
       <c r="I18">
-        <v>11.46928131755073</v>
+        <v>11.46928131755074</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.819280547595</v>
+        <v>23.81928054759499</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.69729263667325</v>
+        <v>24.69729263667327</v>
       </c>
       <c r="C19">
-        <v>20.53535069868132</v>
+        <v>20.5353506986813</v>
       </c>
       <c r="D19">
-        <v>3.569531228859519</v>
+        <v>3.569531228859467</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.39889549039356</v>
+        <v>33.39889549039363</v>
       </c>
       <c r="G19">
-        <v>23.89269094884551</v>
+        <v>23.89269094884558</v>
       </c>
       <c r="H19">
-        <v>17.90191989615799</v>
+        <v>17.90191989615807</v>
       </c>
       <c r="I19">
         <v>11.42854807538934</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.70935003921892</v>
+        <v>23.70935003921888</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.18874881768174</v>
+        <v>25.18874881768172</v>
       </c>
       <c r="C20">
-        <v>20.95190367178535</v>
+        <v>20.95190367178536</v>
       </c>
       <c r="D20">
-        <v>3.612892844339742</v>
+        <v>3.612892844339762</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.98755833980037</v>
+        <v>33.98755833980036</v>
       </c>
       <c r="G20">
         <v>24.2694710340688</v>
       </c>
       <c r="H20">
-        <v>18.08026128202277</v>
+        <v>18.08026128202276</v>
       </c>
       <c r="I20">
-        <v>11.61234693773321</v>
+        <v>11.6123469377332</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>24.20161768905941</v>
+        <v>24.20161768905936</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.79133178906493</v>
+        <v>26.79133178906498</v>
       </c>
       <c r="C21">
         <v>22.31341102126447</v>
       </c>
       <c r="D21">
-        <v>3.755892637729987</v>
+        <v>3.755892637729909</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.96800683700058</v>
+        <v>35.96800683700053</v>
       </c>
       <c r="G21">
-        <v>25.54973483690272</v>
+        <v>25.54973483690267</v>
       </c>
       <c r="H21">
-        <v>18.71309366759123</v>
+        <v>18.71309366759114</v>
       </c>
       <c r="I21">
-        <v>12.32386074650256</v>
+        <v>12.3238607465026</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.8142731915169</v>
+        <v>25.81427319151694</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1178,22 +1178,22 @@
         <v>23.17605513947494</v>
       </c>
       <c r="D22">
-        <v>3.847371347995999</v>
+        <v>3.847371347996022</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.28099745399152</v>
+        <v>37.28099745399165</v>
       </c>
       <c r="G22">
-        <v>26.39777872418485</v>
+        <v>26.39777872418492</v>
       </c>
       <c r="H22">
-        <v>19.1529306405404</v>
+        <v>19.15293064054045</v>
       </c>
       <c r="I22">
-        <v>12.88471707949951</v>
+        <v>12.88471707949954</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.83910139769381</v>
+        <v>26.83910139769386</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.26647007960595</v>
+        <v>27.26647007960604</v>
       </c>
       <c r="C23">
-        <v>22.71805202121599</v>
+        <v>22.71805202121595</v>
       </c>
       <c r="D23">
-        <v>3.79872630748245</v>
+        <v>3.798726307482535</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.57252822054934</v>
+        <v>36.5725282205493</v>
       </c>
       <c r="G23">
-        <v>25.94407286016436</v>
+        <v>25.94407286016433</v>
       </c>
       <c r="H23">
-        <v>18.91570016696547</v>
+        <v>18.91570016696543</v>
       </c>
       <c r="I23">
-        <v>12.5860360715267</v>
+        <v>12.58603607152666</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>26.29468480508936</v>
+        <v>26.2946848050894</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.16194614162818</v>
+        <v>25.1619461416283</v>
       </c>
       <c r="C24">
-        <v>20.92917456168833</v>
+        <v>20.92917456168836</v>
       </c>
       <c r="D24">
-        <v>3.610521782205869</v>
+        <v>3.610521782205819</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.95522348038381</v>
+        <v>33.95522348038378</v>
       </c>
       <c r="G24">
-        <v>24.24872727000781</v>
+        <v>24.24872727000778</v>
       </c>
       <c r="H24">
-        <v>18.07034397466441</v>
+        <v>18.07034397466432</v>
       </c>
       <c r="I24">
-        <v>11.6022207403019</v>
+        <v>11.60222074030192</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>24.17474398498571</v>
+        <v>24.17474398498577</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.73400177726171</v>
+        <v>22.73400177726169</v>
       </c>
       <c r="C25">
-        <v>18.87553902263517</v>
+        <v>18.87553902263511</v>
       </c>
       <c r="D25">
-        <v>3.398906632794833</v>
+        <v>3.398906632794839</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.13982979874089</v>
+        <v>31.13982979874081</v>
       </c>
       <c r="G25">
-        <v>22.46537494922991</v>
+        <v>22.46537494922988</v>
       </c>
       <c r="H25">
-        <v>17.26372499978686</v>
+        <v>17.26372499978681</v>
       </c>
       <c r="I25">
-        <v>10.73459010922784</v>
+        <v>10.73459010922782</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.75275468634183</v>
+        <v>21.7527546863418</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.80332542513217</v>
+        <v>20.80279956259045</v>
       </c>
       <c r="C2">
-        <v>17.24946877795394</v>
+        <v>17.24572519209229</v>
       </c>
       <c r="D2">
-        <v>3.23574364204177</v>
+        <v>3.238905262338777</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.07321961913026</v>
+        <v>29.05465677290454</v>
       </c>
       <c r="G2">
-        <v>21.19044149903842</v>
+        <v>20.02126871208398</v>
       </c>
       <c r="H2">
-        <v>16.75240808992639</v>
+        <v>21.22425363508649</v>
       </c>
       <c r="I2">
-        <v>10.11735913921114</v>
+        <v>16.74010480166551</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.11684468054303</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.84305047747848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>19.84311498667536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.40256568368612</v>
+        <v>19.40221420019518</v>
       </c>
       <c r="C3">
-        <v>16.0732222244348</v>
+        <v>16.06988525215244</v>
       </c>
       <c r="D3">
-        <v>3.120726688625151</v>
+        <v>3.123460326567722</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.67940070133724</v>
+        <v>27.66205743692663</v>
       </c>
       <c r="G3">
-        <v>20.35131598419173</v>
+        <v>18.92443630789374</v>
       </c>
       <c r="H3">
-        <v>16.45341240268301</v>
+        <v>20.38389585064145</v>
       </c>
       <c r="I3">
-        <v>9.712108671332087</v>
+        <v>16.44209873274022</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.711671813816276</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.4656678854774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>18.46580980560258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.4960465870752</v>
+        <v>18.49580218749115</v>
       </c>
       <c r="C4">
-        <v>15.31347176231166</v>
+        <v>15.31039246625515</v>
       </c>
       <c r="D4">
-        <v>3.048000664275152</v>
+        <v>3.050455251741964</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.82864842102003</v>
+        <v>26.81207864901381</v>
       </c>
       <c r="G4">
-        <v>19.84909446676841</v>
+        <v>18.24953467464961</v>
       </c>
       <c r="H4">
-        <v>16.29186804893751</v>
+        <v>19.88096177395328</v>
       </c>
       <c r="I4">
-        <v>9.469782769415644</v>
+        <v>16.28117139719638</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.469400213017202</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.57767862220564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>17.57786453708671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.11483293758974</v>
+        <v>18.11463238086828</v>
       </c>
       <c r="C5">
-        <v>14.99430924726015</v>
+        <v>14.99133723425048</v>
       </c>
       <c r="D5">
-        <v>3.01785175274803</v>
+        <v>3.020188589097207</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.48357442427887</v>
+        <v>26.46732602668714</v>
       </c>
       <c r="G5">
-        <v>19.64784208674092</v>
+        <v>17.97441507430753</v>
       </c>
       <c r="H5">
-        <v>16.23135980855167</v>
+        <v>19.67943044443758</v>
       </c>
       <c r="I5">
-        <v>9.372693775041832</v>
+        <v>16.22091645245792</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.372335040044916</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>17.20501863898968</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>17.20522173645054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.0508167339615</v>
+        <v>18.05062347564447</v>
       </c>
       <c r="C6">
-        <v>14.94073196373552</v>
+        <v>14.93777791036076</v>
       </c>
       <c r="D6">
-        <v>3.012815160107461</v>
+        <v>3.015132202234262</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.42638390730481</v>
+        <v>26.41018924299465</v>
       </c>
       <c r="G6">
-        <v>19.61463433181627</v>
+        <v>17.92873534339724</v>
       </c>
       <c r="H6">
-        <v>16.22162722845864</v>
+        <v>19.64617706951555</v>
       </c>
       <c r="I6">
-        <v>9.356673487338785</v>
+        <v>16.21122602912488</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.356318810261973</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>17.14248197923395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>17.14268788880919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.49095333414993</v>
+        <v>18.49070952474735</v>
       </c>
       <c r="C7">
-        <v>15.30920627670294</v>
+        <v>15.3061284179291</v>
       </c>
       <c r="D7">
-        <v>3.047596115555132</v>
+        <v>3.050049131242387</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.82398759559327</v>
+        <v>26.80742213290571</v>
       </c>
       <c r="G7">
-        <v>19.84636632017744</v>
+        <v>18.24582427991297</v>
       </c>
       <c r="H7">
-        <v>16.29103076383826</v>
+        <v>19.87822981866579</v>
       </c>
       <c r="I7">
-        <v>9.468466626563318</v>
+        <v>16.28033752128975</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.468084384563538</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.57269672836841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>17.57288287781706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.32990736361807</v>
+        <v>20.32944174550362</v>
       </c>
       <c r="C8">
-        <v>16.8516120156258</v>
+        <v>16.84800712423034</v>
       </c>
       <c r="D8">
-        <v>3.19653173118224</v>
+        <v>3.199549186157889</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.59176526982802</v>
+        <v>28.57361783559723</v>
       </c>
       <c r="G8">
-        <v>20.89848795868568</v>
+        <v>19.64352143391196</v>
       </c>
       <c r="H8">
-        <v>16.64461177192739</v>
+        <v>20.93186627944966</v>
       </c>
       <c r="I8">
-        <v>9.976291864488434</v>
+        <v>16.63264745661386</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.97580280124328</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>19.37679657681715</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>19.37688860125265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.57362234984179</v>
+        <v>23.57271265110694</v>
       </c>
       <c r="C9">
-        <v>19.58456382638598</v>
+        <v>19.57997715810709</v>
       </c>
       <c r="D9">
-        <v>3.471342387698305</v>
+        <v>3.475336204439485</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.08737831368951</v>
+        <v>32.06631918659438</v>
       </c>
       <c r="G9">
-        <v>23.0602242449305</v>
+        <v>22.364803904021</v>
       </c>
       <c r="H9">
-        <v>17.52208510177976</v>
+        <v>23.09690675405014</v>
       </c>
       <c r="I9">
-        <v>11.02338313776061</v>
+        <v>17.50772359394281</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.02273522504987</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.5876201989582</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>22.58749238516084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.74521759864272</v>
+        <v>25.74396245050391</v>
       </c>
       <c r="C10">
-        <v>21.42410224044869</v>
+        <v>21.41880855026744</v>
       </c>
       <c r="D10">
-        <v>3.662277675918774</v>
+        <v>3.666908522545367</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.66481515601379</v>
+        <v>34.64171670312402</v>
       </c>
       <c r="G10">
-        <v>24.70517164679222</v>
+        <v>24.34690709746395</v>
       </c>
       <c r="H10">
-        <v>18.29112878512135</v>
+        <v>24.74446459190138</v>
       </c>
       <c r="I10">
-        <v>11.82523287938728</v>
+        <v>18.27508791560051</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.82449430614556</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>24.76027182369299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>24.75994942090635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.68955773668972</v>
+        <v>26.6881378597549</v>
       </c>
       <c r="C11">
-        <v>22.22679710742742</v>
+        <v>22.22118063539863</v>
       </c>
       <c r="D11">
-        <v>3.746742537631902</v>
+        <v>3.751645861126201</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.83953325389086</v>
+        <v>35.81552261814418</v>
       </c>
       <c r="G11">
-        <v>25.46613218305431</v>
+        <v>25.24890630650683</v>
       </c>
       <c r="H11">
-        <v>18.67058283405263</v>
+        <v>25.50664867906014</v>
       </c>
       <c r="I11">
-        <v>12.26794703927166</v>
+        <v>18.65379890554064</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.26758090946214</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>25.71150930993788</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>25.71108803401808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.04111535834828</v>
+        <v>27.03963168126497</v>
       </c>
       <c r="C12">
-        <v>22.5260760624475</v>
+        <v>22.5203367879464</v>
       </c>
       <c r="D12">
-        <v>3.778387053935174</v>
+        <v>3.78339109012996</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.284839432508</v>
+        <v>36.26048491498574</v>
       </c>
       <c r="G12">
-        <v>25.75621567396217</v>
+        <v>25.60874330883152</v>
       </c>
       <c r="H12">
-        <v>18.81875566336119</v>
+        <v>25.79720043647696</v>
       </c>
       <c r="I12">
-        <v>12.46145310209815</v>
+        <v>18.80169345234401</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.46108272318978</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>26.0666941851927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>26.06623365395401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.96566621852898</v>
+        <v>26.96419635094876</v>
       </c>
       <c r="C13">
-        <v>22.46182548634453</v>
+        <v>22.45611269208746</v>
       </c>
       <c r="D13">
-        <v>3.771586882571651</v>
+        <v>3.776569337846091</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.18891053113387</v>
+        <v>36.16463001880958</v>
       </c>
       <c r="G13">
-        <v>25.69365300540688</v>
+        <v>25.53130407190172</v>
       </c>
       <c r="H13">
-        <v>18.78664087557207</v>
+        <v>25.73453670223374</v>
       </c>
       <c r="I13">
-        <v>12.4198375367988</v>
+        <v>18.76963846003954</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.41946809684429</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>25.9904170638516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>25.98996507348862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.71860039030908</v>
+        <v>26.71717529504672</v>
       </c>
       <c r="C14">
-        <v>22.25151147614579</v>
+        <v>22.24588491508078</v>
       </c>
       <c r="D14">
-        <v>3.749352739517555</v>
+        <v>3.754264398027125</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.87615828761167</v>
+        <v>35.85211933411549</v>
       </c>
       <c r="G14">
-        <v>25.48995811370771</v>
+        <v>25.27853689115551</v>
       </c>
       <c r="H14">
-        <v>18.68268192451487</v>
+        <v>25.53051303660483</v>
       </c>
       <c r="I14">
-        <v>12.28389409466956</v>
+        <v>18.66587503945549</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.28352762572866</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>25.74082944889372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>25.7404049818602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.56648521974995</v>
+        <v>26.56508735312242</v>
       </c>
       <c r="C15">
-        <v>22.12208510704555</v>
+        <v>22.116511278775</v>
       </c>
       <c r="D15">
-        <v>3.735689520587991</v>
+        <v>3.740557493341871</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.68465542721748</v>
+        <v>35.6607646131357</v>
       </c>
       <c r="G15">
-        <v>25.36544399230987</v>
+        <v>25.12708519917262</v>
       </c>
       <c r="H15">
-        <v>18.61959471499262</v>
+        <v>25.40579816790167</v>
       </c>
       <c r="I15">
-        <v>12.20044594972911</v>
+        <v>18.60290800161051</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.20008123427204</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>25.58730483359763</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>25.58689697842517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.68264474841313</v>
+        <v>25.68140018594088</v>
       </c>
       <c r="C16">
-        <v>21.37097606366191</v>
+        <v>21.36570341136915</v>
       </c>
       <c r="D16">
-        <v>3.656709761788212</v>
+        <v>3.661322454664146</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.5880993031328</v>
+        <v>34.56506072040793</v>
       </c>
       <c r="G16">
-        <v>24.65570313609627</v>
+        <v>24.28813534970836</v>
       </c>
       <c r="H16">
-        <v>18.26694512614657</v>
+        <v>24.69491682200155</v>
       </c>
       <c r="I16">
-        <v>11.8010431943263</v>
+        <v>18.25095324906066</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.80030711886835</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>24.69738494583348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>24.69706876984277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.12943462450335</v>
+        <v>25.1282819465968</v>
       </c>
       <c r="C17">
-        <v>20.90160604672847</v>
+        <v>20.89651758872295</v>
       </c>
       <c r="D17">
-        <v>3.607646648764921</v>
+        <v>3.612098314079108</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.91603697698935</v>
+        <v>33.8935247428975</v>
       </c>
       <c r="G17">
-        <v>24.22359525494631</v>
+        <v>23.77272875390079</v>
       </c>
       <c r="H17">
-        <v>18.0583438842181</v>
+        <v>24.26211832448399</v>
       </c>
       <c r="I17">
-        <v>11.58995350934542</v>
+        <v>18.04278373032805</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.58923975821825</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>24.1421504881855</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>24.14188768942384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.80713133680325</v>
+        <v>24.80603081709819</v>
       </c>
       <c r="C18">
-        <v>20.62841049716047</v>
+        <v>20.62342790142101</v>
       </c>
       <c r="D18">
-        <v>3.579201175717899</v>
+        <v>3.583558590981006</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.52967891640029</v>
+        <v>33.50747093482141</v>
       </c>
       <c r="G18">
-        <v>23.97624013739944</v>
+        <v>23.47596710589017</v>
       </c>
       <c r="H18">
-        <v>17.94113503620681</v>
+        <v>24.01436938733659</v>
       </c>
       <c r="I18">
-        <v>11.46928131755074</v>
+        <v>17.92582516733757</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.4685808008026</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.81928054759499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>23.8190474981194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.69729263667327</v>
+        <v>24.69620966740626</v>
       </c>
       <c r="C19">
-        <v>20.5353506986813</v>
+        <v>20.53040394358464</v>
       </c>
       <c r="D19">
-        <v>3.569531228859467</v>
+        <v>3.573856452005481</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.39889549039363</v>
+        <v>33.37679080143637</v>
       </c>
       <c r="G19">
-        <v>23.89269094884558</v>
+        <v>23.3754318305171</v>
       </c>
       <c r="H19">
-        <v>17.90191989615807</v>
+        <v>23.93068745159765</v>
       </c>
       <c r="I19">
-        <v>11.42854807538934</v>
+        <v>17.88669510245458</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.42785211201767</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.70935003921888</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>23.70912690781251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.18874881768172</v>
+        <v>25.18758643230279</v>
       </c>
       <c r="C20">
-        <v>20.95190367178536</v>
+        <v>20.94679561717296</v>
       </c>
       <c r="D20">
-        <v>3.612892844339762</v>
+        <v>3.617361820016313</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.98755833980036</v>
+        <v>33.96498992314342</v>
       </c>
       <c r="G20">
-        <v>24.2694710340688</v>
+        <v>23.82762631754182</v>
       </c>
       <c r="H20">
-        <v>18.08026128202276</v>
+        <v>24.30806727052669</v>
       </c>
       <c r="I20">
-        <v>11.6123469377332</v>
+        <v>18.06465496549732</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.61163077052227</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>24.20161768905936</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>24.20134930888326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.79133178906498</v>
+        <v>26.78989358453416</v>
       </c>
       <c r="C21">
-        <v>22.31341102126447</v>
+        <v>22.3077591504701</v>
       </c>
       <c r="D21">
-        <v>3.755892637729909</v>
+        <v>3.760825157748778</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.96800683700053</v>
+        <v>35.94389689625591</v>
       </c>
       <c r="G21">
-        <v>25.54973483690267</v>
+        <v>25.35281667553853</v>
       </c>
       <c r="H21">
-        <v>18.71309366759114</v>
+        <v>25.59038619644397</v>
       </c>
       <c r="I21">
-        <v>12.3238607465026</v>
+        <v>18.69622926642937</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.3234934190885</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>25.81427319151694</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>25.81384069235402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.80360481880194</v>
+        <v>27.80197787635942</v>
       </c>
       <c r="C22">
-        <v>23.17605513947494</v>
+        <v>23.17004428592682</v>
       </c>
       <c r="D22">
-        <v>3.847371347996022</v>
+        <v>3.852592448684431</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.28099745399165</v>
+        <v>37.25544107514966</v>
       </c>
       <c r="G22">
-        <v>26.39777872418492</v>
+        <v>26.39783710433706</v>
       </c>
       <c r="H22">
-        <v>19.15293064054045</v>
+        <v>26.43980191447093</v>
       </c>
       <c r="I22">
-        <v>12.88471707949954</v>
+        <v>19.13526199492625</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.88433629783603</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>26.83910139769386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>26.83855086381769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.26647007960604</v>
+        <v>27.26494476841082</v>
       </c>
       <c r="C23">
-        <v>22.71805202121595</v>
+        <v>22.71223324005459</v>
       </c>
       <c r="D23">
-        <v>3.798726307482535</v>
+        <v>3.803794693328325</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.5725282205493</v>
+        <v>36.54795198779187</v>
       </c>
       <c r="G23">
-        <v>25.94407286016433</v>
+        <v>25.84073326769148</v>
       </c>
       <c r="H23">
-        <v>18.91570016696543</v>
+        <v>25.98536132017433</v>
       </c>
       <c r="I23">
-        <v>12.58603607152666</v>
+        <v>18.89845912571271</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.58566279557429</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>26.2946848050894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>26.29419837884371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.1619461416283</v>
+        <v>25.16078814705197</v>
       </c>
       <c r="C24">
-        <v>20.92917456168836</v>
+        <v>20.92407536677611</v>
       </c>
       <c r="D24">
-        <v>3.610521782205819</v>
+        <v>3.614982937080755</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.95522348038378</v>
+        <v>33.93268045868174</v>
       </c>
       <c r="G24">
-        <v>24.24872727000778</v>
+        <v>23.80280853289043</v>
       </c>
       <c r="H24">
-        <v>18.07034397466432</v>
+        <v>24.28729041763951</v>
       </c>
       <c r="I24">
-        <v>11.60222074030192</v>
+        <v>18.05475852179153</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.60150566414422</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>24.17474398498577</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>24.17447813106498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.73400177726169</v>
+        <v>22.7332145294543</v>
       </c>
       <c r="C25">
-        <v>18.87553902263511</v>
+        <v>18.87121412063939</v>
       </c>
       <c r="D25">
-        <v>3.398906632794839</v>
+        <v>3.402650420314828</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.13982979874081</v>
+        <v>31.11953917977544</v>
       </c>
       <c r="G25">
-        <v>22.46537494922988</v>
+        <v>21.63155619775393</v>
       </c>
       <c r="H25">
-        <v>17.26372499978681</v>
+        <v>22.50113007108503</v>
       </c>
       <c r="I25">
-        <v>10.73459010922782</v>
+        <v>17.24999905498937</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.73398014998956</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.7527546863418</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>21.75269121254493</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.80279956259045</v>
+        <v>20.31957333478969</v>
       </c>
       <c r="C2">
-        <v>17.24572519209229</v>
+        <v>9.780528380204638</v>
       </c>
       <c r="D2">
-        <v>3.238905262338777</v>
+        <v>2.337140235269461</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.05465677290454</v>
+        <v>41.89943699090236</v>
       </c>
       <c r="G2">
-        <v>20.02126871208398</v>
+        <v>2.135209647244545</v>
       </c>
       <c r="H2">
-        <v>21.22425363508649</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.74010480166551</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>10.11684468054303</v>
+        <v>6.461289319329852</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.62951789389365</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.091561487249649</v>
       </c>
       <c r="M2">
-        <v>19.84311498667536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>31.66629730936353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.40221420019518</v>
+        <v>19.13337391380436</v>
       </c>
       <c r="C3">
-        <v>16.06988525215244</v>
+        <v>9.194291844576838</v>
       </c>
       <c r="D3">
-        <v>3.123460326567722</v>
+        <v>2.321658590976543</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.66205743692663</v>
+        <v>40.75134496889859</v>
       </c>
       <c r="G3">
-        <v>18.92443630789374</v>
+        <v>2.145417401074871</v>
       </c>
       <c r="H3">
-        <v>20.38389585064145</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>16.44209873274022</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.711671813816276</v>
+        <v>6.498798700159019</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.67457440194366</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.963959180199475</v>
       </c>
       <c r="M3">
-        <v>18.46580980560258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>30.879220628016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.49580218749115</v>
+        <v>18.3825091997973</v>
       </c>
       <c r="C4">
-        <v>15.31039246625515</v>
+        <v>8.817693224620573</v>
       </c>
       <c r="D4">
-        <v>3.050455251741964</v>
+        <v>2.312906971663836</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.81207864901381</v>
+        <v>40.06468733798604</v>
       </c>
       <c r="G4">
-        <v>18.24953467464961</v>
+        <v>2.151835460918581</v>
       </c>
       <c r="H4">
-        <v>19.88096177395328</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>16.28117139719638</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>9.469400213017202</v>
+        <v>6.52346998751014</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.09274913399893</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.88870340520754</v>
       </c>
       <c r="M4">
-        <v>17.57786453708671</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>30.41164688939832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.11463238086828</v>
+        <v>18.07112281515847</v>
       </c>
       <c r="C5">
-        <v>14.99133723425048</v>
+        <v>8.660027717227338</v>
       </c>
       <c r="D5">
-        <v>3.020188589097207</v>
+        <v>2.309519457285862</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.46732602668714</v>
+        <v>39.78956145162268</v>
       </c>
       <c r="G5">
-        <v>17.97441507430753</v>
+        <v>2.154490927863937</v>
       </c>
       <c r="H5">
-        <v>19.67943044443758</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>16.22091645245792</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>9.372335040044916</v>
+        <v>6.533931034023619</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.85138197427234</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.858825112142276</v>
       </c>
       <c r="M5">
-        <v>17.20522173645054</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>30.22507057865689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.05062347564447</v>
+        <v>18.01910018703327</v>
       </c>
       <c r="C6">
-        <v>14.93777791036076</v>
+        <v>8.633593833150419</v>
       </c>
       <c r="D6">
-        <v>3.015132202234262</v>
+        <v>2.308967471511835</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.41018924299465</v>
+        <v>39.7441633805764</v>
       </c>
       <c r="G6">
-        <v>17.92873534339724</v>
+        <v>2.154934347359141</v>
       </c>
       <c r="H6">
-        <v>19.64617706951555</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>16.21122602912488</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>9.356318810261973</v>
+        <v>6.535692539547481</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.81105227687307</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.853911825928927</v>
       </c>
       <c r="M6">
-        <v>17.14268788880919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>30.19432963648556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.49070952474735</v>
+        <v>18.37833120750581</v>
       </c>
       <c r="C7">
-        <v>15.3061284179291</v>
+        <v>8.815583897550779</v>
       </c>
       <c r="D7">
-        <v>3.050049131242387</v>
+        <v>2.312860575741644</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.80742213290571</v>
+        <v>40.06095776061203</v>
       </c>
       <c r="G7">
-        <v>18.24582427991297</v>
+        <v>2.151871108467124</v>
       </c>
       <c r="H7">
-        <v>19.87822981866579</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>16.28033752128975</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>9.468084384563538</v>
+        <v>6.523609426222896</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.08951095042425</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.888297246463994</v>
       </c>
       <c r="M7">
-        <v>17.57288287781706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>30.40911458342298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.32944174550362</v>
+        <v>19.91538384942991</v>
       </c>
       <c r="C8">
-        <v>16.84800712423034</v>
+        <v>9.581836868851978</v>
       </c>
       <c r="D8">
-        <v>3.199549186157889</v>
+        <v>2.331638740577106</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.57361783559723</v>
+        <v>41.49983692339998</v>
       </c>
       <c r="G8">
-        <v>19.64352143391196</v>
+        <v>2.138699442628207</v>
       </c>
       <c r="H8">
-        <v>20.93186627944966</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>16.63264745661386</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>9.97580280124328</v>
+        <v>6.473878826075643</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.28026781005734</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.04692918779445</v>
       </c>
       <c r="M8">
-        <v>19.37688860125265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>31.39166514370097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.57271265110694</v>
+        <v>22.74285912462132</v>
       </c>
       <c r="C9">
-        <v>19.57997715810709</v>
+        <v>10.95373327902314</v>
       </c>
       <c r="D9">
-        <v>3.475336204439485</v>
+        <v>2.375006840646456</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.06631918659438</v>
+        <v>44.46310552850604</v>
       </c>
       <c r="G9">
-        <v>22.364803904021</v>
+        <v>2.11395400907236</v>
       </c>
       <c r="H9">
-        <v>23.09690675405014</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>17.50772359394281</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>11.02273522504987</v>
+        <v>6.389631996060994</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.8323543745069</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.382078072974971</v>
       </c>
       <c r="M9">
-        <v>22.58749238516084</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>33.44266404127997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.74396245050391</v>
+        <v>24.72312619992164</v>
       </c>
       <c r="C10">
-        <v>21.41880855026744</v>
+        <v>11.88493688321632</v>
       </c>
       <c r="D10">
-        <v>3.666908522545367</v>
+        <v>2.411767480699329</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>34.64171670312402</v>
+        <v>46.72427005430661</v>
       </c>
       <c r="G10">
-        <v>24.34690709746395</v>
+        <v>2.096265626868862</v>
       </c>
       <c r="H10">
-        <v>24.74446459190138</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>18.27508791560051</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>11.82449430614556</v>
+        <v>6.336232574156783</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.56638258461795</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.642500986476645</v>
       </c>
       <c r="M10">
-        <v>24.75994942090635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>35.02617614559144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.6881378597549</v>
+        <v>25.66525801422159</v>
       </c>
       <c r="C11">
-        <v>22.22118063539863</v>
+        <v>12.29284074598672</v>
       </c>
       <c r="D11">
-        <v>3.751645861126201</v>
+        <v>2.429798943544819</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.81552261814418</v>
+        <v>47.77153497946063</v>
       </c>
       <c r="G11">
-        <v>25.24890630650683</v>
+        <v>2.088282964081733</v>
       </c>
       <c r="H11">
-        <v>25.50664867906014</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>18.65379890554064</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>12.26758090946214</v>
+        <v>6.313889354555869</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.32253058530899</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.764010533077026</v>
       </c>
       <c r="M11">
-        <v>25.71108803401808</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>35.76391534267221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.03963168126497</v>
+        <v>26.01685154447118</v>
       </c>
       <c r="C12">
-        <v>22.5203367879464</v>
+        <v>12.44514146264248</v>
       </c>
       <c r="D12">
-        <v>3.78339109012996</v>
+        <v>2.436839496789557</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>36.26048491498574</v>
+        <v>48.1708864706131</v>
       </c>
       <c r="G12">
-        <v>25.60874330883152</v>
+        <v>2.085265300548922</v>
       </c>
       <c r="H12">
-        <v>25.79720043647696</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>18.80169345234401</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>12.46108272318978</v>
+        <v>6.305718919351754</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.60435972686035</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.810461922949323</v>
       </c>
       <c r="M12">
-        <v>26.06623365395401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>36.04588275766982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.96419635094876</v>
+        <v>25.94135634494409</v>
       </c>
       <c r="C13">
-        <v>22.45611269208746</v>
+        <v>12.41243531924991</v>
       </c>
       <c r="D13">
-        <v>3.776569337846091</v>
+        <v>2.435313313377884</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.16463001880958</v>
+        <v>48.08475335837806</v>
       </c>
       <c r="G13">
-        <v>25.53130407190172</v>
+        <v>2.085915045849719</v>
       </c>
       <c r="H13">
-        <v>25.73453670223374</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>18.76963846003954</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>12.41946809684429</v>
+        <v>6.307465472940967</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.54386000998258</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.800438213133086</v>
       </c>
       <c r="M13">
-        <v>25.98996507348862</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.98503822793893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.71717529504672</v>
+        <v>25.69428631223494</v>
       </c>
       <c r="C14">
-        <v>22.24588491508078</v>
+        <v>12.30541337795094</v>
       </c>
       <c r="D14">
-        <v>3.754264398027125</v>
+        <v>2.43037376445916</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.85211933411549</v>
+        <v>47.80433347923372</v>
       </c>
       <c r="G14">
-        <v>25.27853689115551</v>
+        <v>2.088034619460735</v>
       </c>
       <c r="H14">
-        <v>25.53051303660483</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>18.66587503945549</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>12.28352762572866</v>
+        <v>6.313211283225304</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.34580601665782</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.76782330599739</v>
       </c>
       <c r="M14">
-        <v>25.7404049818602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>35.78706009213752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.56508735312242</v>
+        <v>25.5422812543157</v>
       </c>
       <c r="C15">
-        <v>22.116511278775</v>
+        <v>12.23958067589386</v>
       </c>
       <c r="D15">
-        <v>3.740557493341871</v>
+        <v>2.427376595794166</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.6607646131357</v>
+        <v>47.63293349626271</v>
       </c>
       <c r="G15">
-        <v>25.12708519917262</v>
+        <v>2.089333469936368</v>
       </c>
       <c r="H15">
-        <v>25.40579816790167</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>18.60290800161051</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>12.20008123427204</v>
+        <v>6.316768911175672</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.22391118583706</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.74790294460924</v>
       </c>
       <c r="M15">
-        <v>25.58689697842517</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>35.6661353350666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.68140018594088</v>
+        <v>24.66082144357274</v>
       </c>
       <c r="C16">
-        <v>21.36570341136915</v>
+        <v>11.85797110599176</v>
       </c>
       <c r="D16">
-        <v>3.661322454664146</v>
+        <v>2.410617406156754</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34.56506072040793</v>
+        <v>46.65621058898719</v>
       </c>
       <c r="G16">
-        <v>24.28813534970836</v>
+        <v>2.096788267677392</v>
       </c>
       <c r="H16">
-        <v>24.69491682200155</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>18.25095324906066</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>11.80030711886835</v>
+        <v>6.337732812896463</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.51632493444314</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.634621219174914</v>
       </c>
       <c r="M16">
-        <v>24.69706876984277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>34.97832071848864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.1282819465968</v>
+        <v>24.14090422900892</v>
       </c>
       <c r="C17">
-        <v>20.89651758872295</v>
+        <v>11.6199058206466</v>
       </c>
       <c r="D17">
-        <v>3.612098314079108</v>
+        <v>2.400687508489576</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.8935247428975</v>
+        <v>46.06184545705085</v>
       </c>
       <c r="G17">
-        <v>23.77272875390079</v>
+        <v>2.101375210871677</v>
       </c>
       <c r="H17">
-        <v>24.26211832448399</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>18.04278373032805</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>11.58923975821825</v>
+        <v>6.351099444238631</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.07400523718127</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.565904644568524</v>
       </c>
       <c r="M17">
-        <v>24.14188768942384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>34.56088112482409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.80603081709819</v>
+        <v>23.84935833874236</v>
       </c>
       <c r="C18">
-        <v>20.62342790142101</v>
+        <v>11.48149206736518</v>
       </c>
       <c r="D18">
-        <v>3.583558590981006</v>
+        <v>2.395097636688031</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.50747093482141</v>
+        <v>45.72172852532969</v>
       </c>
       <c r="G18">
-        <v>23.47596710589017</v>
+        <v>2.104019775678121</v>
       </c>
       <c r="H18">
-        <v>24.01436938733659</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>17.92582516733757</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>11.4685808008026</v>
+        <v>6.358970287268676</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.81650707068872</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.526666651231227</v>
       </c>
       <c r="M18">
-        <v>23.8190474981194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>34.32240943350352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.69620966740626</v>
+        <v>23.75022374727398</v>
       </c>
       <c r="C19">
-        <v>20.53040394358464</v>
+        <v>11.43436989223061</v>
       </c>
       <c r="D19">
-        <v>3.573856452005481</v>
+        <v>2.393225198548801</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.37679080143637</v>
+        <v>45.60686889645577</v>
       </c>
       <c r="G19">
-        <v>23.3754318305171</v>
+        <v>2.104916371853291</v>
       </c>
       <c r="H19">
-        <v>23.93068745159765</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>17.88669510245458</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>11.42785211201767</v>
+        <v>6.361666307704327</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.72878684760611</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.513430513577232</v>
       </c>
       <c r="M19">
-        <v>23.70912690781251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>34.2419443598271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.18758643230279</v>
+        <v>24.19466251305064</v>
       </c>
       <c r="C20">
-        <v>20.94679561717296</v>
+        <v>11.64540132311774</v>
       </c>
       <c r="D20">
-        <v>3.617361820016313</v>
+        <v>2.401731820155166</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.96498992314342</v>
+        <v>46.1249354512176</v>
       </c>
       <c r="G20">
-        <v>23.82762631754182</v>
+        <v>2.100886300752976</v>
       </c>
       <c r="H20">
-        <v>24.30806727052669</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>18.06465496549732</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>11.61163077052227</v>
+        <v>6.349657563357752</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.12140916194308</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.573190055654067</v>
       </c>
       <c r="M20">
-        <v>24.20134930888326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>34.60514914816196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.78989358453416</v>
+        <v>25.76699551156281</v>
       </c>
       <c r="C21">
-        <v>22.3077591504701</v>
+        <v>12.33690619882828</v>
       </c>
       <c r="D21">
-        <v>3.760825157748778</v>
+        <v>2.431818652583995</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.94389689625591</v>
+        <v>47.88662320676173</v>
       </c>
       <c r="G21">
-        <v>25.35281667553853</v>
+        <v>2.087411942402179</v>
       </c>
       <c r="H21">
-        <v>25.59038619644397</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>18.69622926642937</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>12.3234934190885</v>
+        <v>6.311515628155312</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.40409999499178</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.777391162325328</v>
       </c>
       <c r="M21">
-        <v>25.81384069235402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.84513943354127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.80197787635942</v>
+        <v>26.78095981025619</v>
       </c>
       <c r="C22">
-        <v>23.17004428592682</v>
+        <v>12.77628948834825</v>
       </c>
       <c r="D22">
-        <v>3.852592448684431</v>
+        <v>2.452734434262665</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.25544107514966</v>
+        <v>49.05425626054189</v>
       </c>
       <c r="G22">
-        <v>26.39783710433706</v>
+        <v>2.078633756776938</v>
       </c>
       <c r="H22">
-        <v>26.43980191447093</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>19.13526199492625</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>12.88433629783603</v>
+        <v>6.288286421915899</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.21624192271874</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.913408206570356</v>
       </c>
       <c r="M22">
-        <v>26.83855086381769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.6707900867962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.26494476841082</v>
+        <v>26.24246735569339</v>
       </c>
       <c r="C23">
-        <v>22.71223324005459</v>
+        <v>12.54289544654603</v>
       </c>
       <c r="D23">
-        <v>3.803794693328325</v>
+        <v>2.441447679216202</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>36.54795198779187</v>
+        <v>48.42953119192352</v>
       </c>
       <c r="G23">
-        <v>25.84073326769148</v>
+        <v>2.083317715636561</v>
       </c>
       <c r="H23">
-        <v>25.98536132017433</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>18.89845912571271</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>12.58566279557429</v>
+        <v>6.300525104787454</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.78511275662662</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.840577292308369</v>
       </c>
       <c r="M23">
-        <v>26.29419837884371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>36.22868424604381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.16078814705197</v>
+        <v>24.17036644126869</v>
       </c>
       <c r="C24">
-        <v>20.92407536677611</v>
+        <v>11.63387963149043</v>
       </c>
       <c r="D24">
-        <v>3.614982937080755</v>
+        <v>2.401259318098413</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.93268045868174</v>
+        <v>46.09640751381241</v>
       </c>
       <c r="G24">
-        <v>23.80280853289043</v>
+        <v>2.101107313455131</v>
       </c>
       <c r="H24">
-        <v>24.28729041763951</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>18.05475852179153</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>11.60150566414422</v>
+        <v>6.350308858528932</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.09998783730639</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.569895486279998</v>
       </c>
       <c r="M24">
-        <v>24.17447813106498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>34.58513084767125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.7332145294543</v>
+        <v>21.9987706656648</v>
       </c>
       <c r="C25">
-        <v>18.87121412063939</v>
+        <v>10.59634100595016</v>
       </c>
       <c r="D25">
-        <v>3.402650420314828</v>
+        <v>2.362488059629053</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.11953917977544</v>
+        <v>43.6466594420458</v>
       </c>
       <c r="G25">
-        <v>21.63155619775393</v>
+        <v>2.120548653405022</v>
       </c>
       <c r="H25">
-        <v>22.50113007108503</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>17.24999905498937</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>10.73398014998956</v>
+        <v>6.410963022311157</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.16365269785659</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.288892190918286</v>
       </c>
       <c r="M25">
-        <v>21.75269121254493</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>32.87449332858527</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
@@ -421,46 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.31957333478969</v>
+        <v>13.82598461664256</v>
       </c>
       <c r="C2">
-        <v>9.780528380204638</v>
+        <v>7.827381531899473</v>
       </c>
       <c r="D2">
-        <v>2.337140235269461</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>5.258921400855719</v>
       </c>
       <c r="F2">
-        <v>41.89943699090236</v>
+        <v>18.9986551382202</v>
       </c>
       <c r="G2">
-        <v>2.135209647244545</v>
+        <v>24.23266545746094</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.462599220114202</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>6.461289319329852</v>
-      </c>
       <c r="K2">
-        <v>15.62951789389365</v>
-      </c>
-      <c r="L2">
-        <v>7.091561487249649</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
+        <v>12.29572878089411</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>31.66629730936353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.13337391380436</v>
+        <v>12.91362247236934</v>
       </c>
       <c r="C3">
-        <v>9.194291844576838</v>
+        <v>7.446519355194823</v>
       </c>
       <c r="D3">
-        <v>2.321658590976543</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>5.134863501144786</v>
       </c>
       <c r="F3">
-        <v>40.75134496889859</v>
+        <v>18.87623101614429</v>
       </c>
       <c r="G3">
-        <v>2.145417401074871</v>
+        <v>24.19220291596956</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.591500540043445</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>6.498798700159019</v>
-      </c>
       <c r="K3">
-        <v>14.67457440194366</v>
-      </c>
-      <c r="L3">
-        <v>6.963959180199475</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+        <v>11.57486578167356</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>30.879220628016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.3825091997973</v>
+        <v>12.32131715486136</v>
       </c>
       <c r="C4">
-        <v>8.817693224620573</v>
+        <v>7.202581678529422</v>
       </c>
       <c r="D4">
-        <v>2.312906971663836</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>5.057052971059029</v>
       </c>
       <c r="F4">
-        <v>40.06468733798604</v>
+        <v>18.82589581592485</v>
       </c>
       <c r="G4">
-        <v>2.151835460918581</v>
+        <v>24.20969660502726</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.678403175802599</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>6.52346998751014</v>
-      </c>
       <c r="K4">
-        <v>14.09274913399893</v>
-      </c>
-      <c r="L4">
-        <v>6.88870340520754</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+        <v>11.10929693020078</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>30.41164688939832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.07112281515847</v>
+        <v>12.07183289167469</v>
       </c>
       <c r="C5">
-        <v>8.660027717227338</v>
+        <v>7.100701144010226</v>
       </c>
       <c r="D5">
-        <v>2.309519457285862</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>5.024958512241603</v>
       </c>
       <c r="F5">
-        <v>39.78956145162268</v>
+        <v>18.81138961372497</v>
       </c>
       <c r="G5">
-        <v>2.154490927863937</v>
+        <v>24.22691383390277</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.715681019197927</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>6.533931034023619</v>
-      </c>
       <c r="K5">
-        <v>13.85138197427234</v>
-      </c>
-      <c r="L5">
-        <v>6.858825112142276</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
+        <v>10.91383824700384</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.22507057865689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.01910018703327</v>
+        <v>12.02991500696521</v>
       </c>
       <c r="C6">
-        <v>8.633593833150419</v>
+        <v>7.083636631959638</v>
       </c>
       <c r="D6">
-        <v>2.308967471511835</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>5.019606732401996</v>
       </c>
       <c r="F6">
-        <v>39.7441633805764</v>
+        <v>18.80933632894622</v>
       </c>
       <c r="G6">
-        <v>2.154934347359141</v>
+        <v>24.23036540979011</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.721981184483303</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>6.535692539547481</v>
-      </c>
       <c r="K6">
-        <v>13.81105227687307</v>
-      </c>
-      <c r="L6">
-        <v>6.853911825928927</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
+        <v>10.88103747999218</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.19432963648556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.37833120750581</v>
+        <v>12.31798543041223</v>
       </c>
       <c r="C7">
-        <v>8.815583897550779</v>
+        <v>7.201217606476348</v>
       </c>
       <c r="D7">
-        <v>2.312860575741644</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>5.056621661299706</v>
       </c>
       <c r="F7">
-        <v>40.06095776061203</v>
+        <v>18.82567618969076</v>
       </c>
       <c r="G7">
-        <v>2.151871108467124</v>
+        <v>24.2098887052074</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.678898478272638</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>6.523609426222896</v>
-      </c>
       <c r="K7">
-        <v>14.08951095042425</v>
-      </c>
-      <c r="L7">
-        <v>6.888297246463994</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
+        <v>11.10668406820786</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>30.40911458342298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.91538384942991</v>
+        <v>13.5180409851713</v>
       </c>
       <c r="C8">
-        <v>9.581836868851978</v>
+        <v>7.69818710122756</v>
       </c>
       <c r="D8">
-        <v>2.331638740577106</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>5.21650127604491</v>
       </c>
       <c r="F8">
-        <v>41.49983692339998</v>
+        <v>18.95115041257145</v>
       </c>
       <c r="G8">
-        <v>2.138699442628207</v>
+        <v>24.20959777947736</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.505380534140709</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>6.473878826075643</v>
-      </c>
       <c r="K8">
-        <v>15.28026781005734</v>
-      </c>
-      <c r="L8">
-        <v>7.04692918779445</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
+        <v>12.05195676730233</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>31.39166514370097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.74285912462132</v>
+        <v>15.61862770087772</v>
       </c>
       <c r="C9">
-        <v>10.95373327902314</v>
+        <v>8.59062528572198</v>
       </c>
       <c r="D9">
-        <v>2.375006840646456</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>5.515988518074745</v>
       </c>
       <c r="F9">
-        <v>44.46310552850604</v>
+        <v>19.40401470553494</v>
       </c>
       <c r="G9">
-        <v>2.11395400907236</v>
+        <v>24.56851141333372</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.230890912873122</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>6.389631996060994</v>
-      </c>
       <c r="K9">
-        <v>17.8323543745069</v>
-      </c>
-      <c r="L9">
-        <v>7.382078072974971</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
+        <v>13.72268134417792</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>33.44266404127997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.72312619992164</v>
+        <v>17.01103939073247</v>
       </c>
       <c r="C10">
-        <v>11.88493688321632</v>
+        <v>9.194264929089485</v>
       </c>
       <c r="D10">
-        <v>2.411767480699329</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>5.726234149003679</v>
       </c>
       <c r="F10">
-        <v>46.72427005430661</v>
+        <v>19.87473093362176</v>
       </c>
       <c r="G10">
-        <v>2.096265626868862</v>
+        <v>25.080856460697</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.075740676376487</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>6.336232574156783</v>
-      </c>
       <c r="K10">
-        <v>19.56638258461795</v>
-      </c>
-      <c r="L10">
-        <v>7.642500986476645</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
+        <v>14.83852124567432</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>35.02617614559144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.66525801422159</v>
+        <v>17.61248239179768</v>
       </c>
       <c r="C11">
-        <v>12.29284074598672</v>
+        <v>9.457359643176231</v>
       </c>
       <c r="D11">
-        <v>2.429798943544819</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>5.819539068068445</v>
       </c>
       <c r="F11">
-        <v>47.77153497946063</v>
+        <v>20.12096481434379</v>
       </c>
       <c r="G11">
-        <v>2.088282964081733</v>
+        <v>25.37332544841897</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.016834988063311</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>6.313889354555869</v>
-      </c>
       <c r="K11">
-        <v>20.32253058530899</v>
-      </c>
-      <c r="L11">
-        <v>7.764010533077026</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
+        <v>15.32210549205728</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.76391534267221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.01685154447118</v>
+        <v>17.83570213640965</v>
       </c>
       <c r="C12">
-        <v>12.44514146264248</v>
+        <v>9.55532473849413</v>
       </c>
       <c r="D12">
-        <v>2.436839496789557</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>5.854519982309396</v>
       </c>
       <c r="F12">
-        <v>48.1708864706131</v>
+        <v>20.21896987525068</v>
       </c>
       <c r="G12">
-        <v>2.085265300548922</v>
+        <v>25.49299087465283</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.996351865479777</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>6.305718919351754</v>
-      </c>
       <c r="K12">
-        <v>20.60435972686035</v>
-      </c>
-      <c r="L12">
-        <v>7.810461922949323</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
+        <v>15.50179971970444</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>36.04588275766982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.94135634494409</v>
+        <v>17.78782834648329</v>
       </c>
       <c r="C13">
-        <v>12.41243531924991</v>
+        <v>9.534300236399398</v>
       </c>
       <c r="D13">
-        <v>2.435313313377884</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>5.847002080123962</v>
       </c>
       <c r="F13">
-        <v>48.08475335837806</v>
+        <v>20.19764883391034</v>
       </c>
       <c r="G13">
-        <v>2.085915045849719</v>
+        <v>25.46681697324171</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.0006797648809</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>6.307465472940967</v>
-      </c>
       <c r="K13">
-        <v>20.54386000998258</v>
-      </c>
-      <c r="L13">
-        <v>7.800438213133086</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
+        <v>15.46325136101903</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.98503822793893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.69428631223494</v>
+        <v>17.63093729583237</v>
       </c>
       <c r="C14">
-        <v>12.30541337795094</v>
+        <v>9.465452647867448</v>
       </c>
       <c r="D14">
-        <v>2.43037376445916</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>5.822424097597393</v>
       </c>
       <c r="F14">
-        <v>47.80433347923372</v>
+        <v>20.12893155119911</v>
       </c>
       <c r="G14">
-        <v>2.088034619460735</v>
+        <v>25.38298980452475</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.015112422133342</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>6.313211283225304</v>
-      </c>
       <c r="K14">
-        <v>20.34580601665782</v>
-      </c>
-      <c r="L14">
-        <v>7.76782330599739</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
+        <v>15.33695758829156</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.78706009213752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.5422812543157</v>
+        <v>17.53424854387491</v>
       </c>
       <c r="C15">
-        <v>12.23958067589386</v>
+        <v>9.423064779620603</v>
       </c>
       <c r="D15">
-        <v>2.427376595794166</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>5.807323155776906</v>
       </c>
       <c r="F15">
-        <v>47.63293349626271</v>
+        <v>20.08746434004691</v>
       </c>
       <c r="G15">
-        <v>2.089333469936368</v>
+        <v>25.33281422875039</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.024194754976209</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>6.316768911175672</v>
-      </c>
       <c r="K15">
-        <v>20.22391118583706</v>
-      </c>
-      <c r="L15">
-        <v>7.74790294460924</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
+        <v>15.25915337205896</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.6661353350666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.66082144357274</v>
+        <v>16.97109568613484</v>
       </c>
       <c r="C16">
-        <v>11.85797110599176</v>
+        <v>9.176838651100597</v>
       </c>
       <c r="D16">
-        <v>2.410617406156754</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>5.720088045362451</v>
       </c>
       <c r="F16">
-        <v>46.65621058898719</v>
+        <v>19.8592978000394</v>
       </c>
       <c r="G16">
-        <v>2.096788267677392</v>
+        <v>25.06297121229338</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.07983730308546</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>6.337732812896463</v>
-      </c>
       <c r="K16">
-        <v>19.51632493444314</v>
-      </c>
-      <c r="L16">
-        <v>7.634621219174914</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
+        <v>14.80643654947796</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.97832071848864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.14090422900892</v>
+        <v>16.61747503200829</v>
       </c>
       <c r="C17">
-        <v>11.6199058206466</v>
+        <v>9.022831743202108</v>
       </c>
       <c r="D17">
-        <v>2.400687508489576</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>5.665961799430587</v>
       </c>
       <c r="F17">
-        <v>46.06184545705085</v>
+        <v>19.72765658700423</v>
       </c>
       <c r="G17">
-        <v>2.101375210871677</v>
+        <v>24.91292646203127</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.117061352892915</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>6.351099444238631</v>
-      </c>
       <c r="K17">
-        <v>19.07400523718127</v>
-      </c>
-      <c r="L17">
-        <v>7.565904644568524</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+        <v>14.52257335880299</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>34.56088112482409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.84935833874236</v>
+        <v>16.41106835802273</v>
       </c>
       <c r="C18">
-        <v>11.48149206736518</v>
+        <v>8.93316826946945</v>
       </c>
       <c r="D18">
-        <v>2.395097636688031</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>5.634610647937261</v>
       </c>
       <c r="F18">
-        <v>45.72172852532969</v>
+        <v>19.65495425695138</v>
       </c>
       <c r="G18">
-        <v>2.104019775678121</v>
+        <v>24.83219680974115</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>9.139561025896761</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>6.358970287268676</v>
-      </c>
       <c r="K18">
-        <v>18.81650707068872</v>
-      </c>
-      <c r="L18">
-        <v>7.526666651231227</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
+        <v>14.35704014906416</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>34.32240943350352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.75022374727398</v>
+        <v>16.34066316446295</v>
       </c>
       <c r="C19">
-        <v>11.43436989223061</v>
+        <v>8.902624183479395</v>
       </c>
       <c r="D19">
-        <v>2.393225198548801</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>5.623958556318639</v>
       </c>
       <c r="F19">
-        <v>45.60686889645577</v>
+        <v>19.63085145977276</v>
       </c>
       <c r="G19">
-        <v>2.104916371853291</v>
+        <v>24.80580796038087</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>9.147361904211463</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>6.361666307704327</v>
-      </c>
       <c r="K19">
-        <v>18.72878684760611</v>
-      </c>
-      <c r="L19">
-        <v>7.513430513577232</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+        <v>14.30060421260667</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>34.2419443598271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.19466251305064</v>
+        <v>16.65542998237706</v>
       </c>
       <c r="C20">
-        <v>11.64540132311774</v>
+        <v>9.039338192257539</v>
       </c>
       <c r="D20">
-        <v>2.401731820155166</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>5.671746433632968</v>
       </c>
       <c r="F20">
-        <v>46.1249354512176</v>
+        <v>19.741356948337</v>
       </c>
       <c r="G20">
-        <v>2.100886300752976</v>
+        <v>24.92831942730548</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.112985029541262</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>6.349657563357752</v>
-      </c>
       <c r="K20">
-        <v>19.12140916194308</v>
-      </c>
-      <c r="L20">
-        <v>7.573190055654067</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+        <v>14.55302509573823</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>34.60514914816196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.76699551156281</v>
+        <v>17.67714251393156</v>
       </c>
       <c r="C21">
-        <v>12.33690619882828</v>
+        <v>9.485720026067272</v>
       </c>
       <c r="D21">
-        <v>2.431818652583995</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>5.829652903306695</v>
       </c>
       <c r="F21">
-        <v>47.88662320676173</v>
+        <v>20.14898518481574</v>
       </c>
       <c r="G21">
-        <v>2.087411942402179</v>
+        <v>25.40736725288208</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.010822512639747</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>6.311515628155312</v>
-      </c>
       <c r="K21">
-        <v>20.40409999499178</v>
-      </c>
-      <c r="L21">
-        <v>7.777391162325328</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
+        <v>15.37414594491377</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.84513943354127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.78095981025619</v>
+        <v>18.31849756596307</v>
       </c>
       <c r="C22">
-        <v>12.77628948834825</v>
+        <v>9.767763069258484</v>
       </c>
       <c r="D22">
-        <v>2.452734434262665</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>5.930798659727947</v>
       </c>
       <c r="F22">
-        <v>49.05425626054189</v>
+        <v>20.44320345582915</v>
       </c>
       <c r="G22">
-        <v>2.078633756776938</v>
+        <v>25.77254487404203</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.954755325374228</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>6.288286421915899</v>
-      </c>
       <c r="K22">
-        <v>21.21624192271874</v>
-      </c>
-      <c r="L22">
-        <v>7.913408206570356</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+        <v>15.89082821228124</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.6707900867962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.24246735569339</v>
+        <v>17.97858712471089</v>
       </c>
       <c r="C23">
-        <v>12.54289544654603</v>
+        <v>9.618119407949779</v>
       </c>
       <c r="D23">
-        <v>2.441447679216202</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>5.877007897148575</v>
       </c>
       <c r="F23">
-        <v>48.42953119192352</v>
+        <v>20.2835855739776</v>
       </c>
       <c r="G23">
-        <v>2.083317715636561</v>
+        <v>25.5727667933355</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.98364954595014</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>6.300525104787454</v>
-      </c>
       <c r="K23">
-        <v>20.78511275662662</v>
-      </c>
-      <c r="L23">
-        <v>7.840577292308369</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
+        <v>15.61688195159174</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.22868424604381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.17036644126869</v>
+        <v>16.63828022688277</v>
       </c>
       <c r="C24">
-        <v>11.63387963149043</v>
+        <v>9.031879123310611</v>
       </c>
       <c r="D24">
-        <v>2.401259318098413</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>5.669131925828239</v>
       </c>
       <c r="F24">
-        <v>46.09640751381241</v>
+        <v>19.73515374428624</v>
       </c>
       <c r="G24">
-        <v>2.101107313455131</v>
+        <v>24.9213430622417</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.114824522781637</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>6.350308858528932</v>
-      </c>
       <c r="K24">
-        <v>19.09998783730639</v>
-      </c>
-      <c r="L24">
-        <v>7.569895486279998</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
+        <v>14.53926514488379</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>34.58513084767125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.9987706656648</v>
+        <v>15.0771058216255</v>
       </c>
       <c r="C25">
-        <v>10.59634100595016</v>
+        <v>8.358231440997638</v>
       </c>
       <c r="D25">
-        <v>2.362488059629053</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>5.43660731845941</v>
       </c>
       <c r="F25">
-        <v>43.6466594420458</v>
+        <v>19.25805468051727</v>
       </c>
       <c r="G25">
-        <v>2.120548653405022</v>
+        <v>24.42973246760348</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9.297477630426677</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>6.410963022311157</v>
-      </c>
       <c r="K25">
-        <v>17.16365269785659</v>
-      </c>
-      <c r="L25">
-        <v>7.288892190918286</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
+        <v>13.2903473718833</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>32.87449332858527</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.82598461664256</v>
+        <v>10.05247427851054</v>
       </c>
       <c r="C2">
-        <v>7.827381531899473</v>
+        <v>5.481286445270841</v>
       </c>
       <c r="D2">
-        <v>5.258921400855719</v>
+        <v>5.395086469004689</v>
       </c>
       <c r="F2">
-        <v>18.9986551382202</v>
+        <v>25.75112018213443</v>
       </c>
       <c r="G2">
-        <v>24.23266545746094</v>
+        <v>31.27472198665229</v>
       </c>
       <c r="H2">
-        <v>9.462599220114202</v>
+        <v>14.989452409211</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.29572878089411</v>
+        <v>9.285031372711872</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -456,28 +456,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.91362247236934</v>
+        <v>9.736296559564558</v>
       </c>
       <c r="C3">
-        <v>7.446519355194823</v>
+        <v>5.298933014485848</v>
       </c>
       <c r="D3">
-        <v>5.134863501144786</v>
+        <v>5.34801924787769</v>
       </c>
       <c r="F3">
-        <v>18.87623101614429</v>
+        <v>25.84208167849445</v>
       </c>
       <c r="G3">
-        <v>24.19220291596956</v>
+        <v>31.43040331321058</v>
       </c>
       <c r="H3">
-        <v>9.591500540043445</v>
+        <v>15.05818048246753</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.57486578167356</v>
+        <v>9.060503429531419</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.32131715486136</v>
+        <v>9.538590381248603</v>
       </c>
       <c r="C4">
-        <v>7.202581678529422</v>
+        <v>5.182829625030983</v>
       </c>
       <c r="D4">
-        <v>5.057052971059029</v>
+        <v>5.318665119364594</v>
       </c>
       <c r="F4">
-        <v>18.82589581592485</v>
+        <v>25.90627772511543</v>
       </c>
       <c r="G4">
-        <v>24.20969660502726</v>
+        <v>31.53861700147895</v>
       </c>
       <c r="H4">
-        <v>9.678403175802599</v>
+        <v>15.10337583662439</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.10929693020078</v>
+        <v>8.921228494228563</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.07183289167469</v>
+        <v>9.45725413334854</v>
       </c>
       <c r="C5">
-        <v>7.100701144010226</v>
+        <v>5.134521825509039</v>
       </c>
       <c r="D5">
-        <v>5.024958512241603</v>
+        <v>5.306594725813303</v>
       </c>
       <c r="F5">
-        <v>18.81138961372497</v>
+        <v>25.93452639921431</v>
       </c>
       <c r="G5">
-        <v>24.22691383390277</v>
+        <v>31.58586655027319</v>
       </c>
       <c r="H5">
-        <v>9.715681019197927</v>
+        <v>15.12254608537365</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.91383824700384</v>
+        <v>8.864200138320705</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -561,28 +561,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.02991500696521</v>
+        <v>9.44370579311625</v>
       </c>
       <c r="C6">
-        <v>7.083636631959638</v>
+        <v>5.126441703009845</v>
       </c>
       <c r="D6">
-        <v>5.019606732401996</v>
+        <v>5.304584077921636</v>
       </c>
       <c r="F6">
-        <v>18.80933632894622</v>
+        <v>25.9393428865236</v>
       </c>
       <c r="G6">
-        <v>24.23036540979011</v>
+        <v>31.59390196500571</v>
       </c>
       <c r="H6">
-        <v>9.721981184483303</v>
+        <v>15.12577473919929</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.88103747999218</v>
+        <v>8.854716644134282</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -596,28 +596,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.31798543041223</v>
+        <v>9.537496390158577</v>
       </c>
       <c r="C7">
-        <v>7.201217606476348</v>
+        <v>5.182182092845555</v>
       </c>
       <c r="D7">
-        <v>5.056621661299706</v>
+        <v>5.318502764588338</v>
       </c>
       <c r="F7">
-        <v>18.82567618969076</v>
+        <v>25.90665025525917</v>
       </c>
       <c r="G7">
-        <v>24.2098887052074</v>
+        <v>31.53924149567582</v>
       </c>
       <c r="H7">
-        <v>9.678898478272638</v>
+        <v>15.10363132614031</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.10668406820786</v>
+        <v>8.920460381901691</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -631,28 +631,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.5180409851713</v>
+        <v>9.944271803123703</v>
       </c>
       <c r="C8">
-        <v>7.69818710122756</v>
+        <v>5.41929571697543</v>
       </c>
       <c r="D8">
-        <v>5.21650127604491</v>
+        <v>5.378955625253218</v>
       </c>
       <c r="F8">
-        <v>18.95115041257145</v>
+        <v>25.78074564092947</v>
       </c>
       <c r="G8">
-        <v>24.20959777947736</v>
+        <v>31.32576702602648</v>
       </c>
       <c r="H8">
-        <v>9.505380534140709</v>
+        <v>15.01252765470338</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.05195676730233</v>
+        <v>9.20795614205486</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -666,28 +666,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.61862770087772</v>
+        <v>10.70845377239852</v>
       </c>
       <c r="C9">
-        <v>8.59062528572198</v>
+        <v>5.849672665236339</v>
       </c>
       <c r="D9">
-        <v>5.515988518074745</v>
+        <v>5.493637742585423</v>
       </c>
       <c r="F9">
-        <v>19.40401470553494</v>
+        <v>25.60049667375626</v>
       </c>
       <c r="G9">
-        <v>24.56851141333372</v>
+        <v>31.0083097569761</v>
       </c>
       <c r="H9">
-        <v>9.230890912873122</v>
+        <v>14.85767302266133</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.72268134417792</v>
+        <v>9.757073078695228</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.01103939073247</v>
+        <v>11.24326151388055</v>
       </c>
       <c r="C10">
-        <v>9.194264929089485</v>
+        <v>6.142713971452904</v>
       </c>
       <c r="D10">
-        <v>5.726234149003679</v>
+        <v>5.575199484428476</v>
       </c>
       <c r="F10">
-        <v>19.87473093362176</v>
+        <v>25.50925383793213</v>
       </c>
       <c r="G10">
-        <v>25.080856460697</v>
+        <v>30.83805143289617</v>
       </c>
       <c r="H10">
-        <v>9.075740676376487</v>
+        <v>14.75844761351873</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.83852124567432</v>
+        <v>10.14726716744912</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.61248239179768</v>
+        <v>11.47965940838266</v>
       </c>
       <c r="C11">
-        <v>9.457359643176231</v>
+        <v>6.270642730555852</v>
       </c>
       <c r="D11">
-        <v>5.819539068068445</v>
+        <v>5.611648809808665</v>
       </c>
       <c r="F11">
-        <v>20.12096481434379</v>
+        <v>25.47679345659133</v>
       </c>
       <c r="G11">
-        <v>25.37332544841897</v>
+        <v>30.77453140056531</v>
       </c>
       <c r="H11">
-        <v>9.016834988063311</v>
+        <v>14.71647469132315</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.32210549205728</v>
+        <v>10.32108469942936</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -771,28 +771,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.83570213640965</v>
+        <v>11.56810622769365</v>
       </c>
       <c r="C12">
-        <v>9.55532473849413</v>
+        <v>6.318287888524289</v>
       </c>
       <c r="D12">
-        <v>5.854519982309396</v>
+        <v>5.625351464098494</v>
       </c>
       <c r="F12">
-        <v>20.21896987525068</v>
+        <v>25.4658099045444</v>
       </c>
       <c r="G12">
-        <v>25.49299087465283</v>
+        <v>30.75250106917444</v>
       </c>
       <c r="H12">
-        <v>8.996351865479777</v>
+        <v>14.7010366459121</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.50179971970444</v>
+        <v>10.38631376977099</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -806,28 +806,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.78782834648329</v>
+        <v>11.54910649815009</v>
       </c>
       <c r="C13">
-        <v>9.534300236399398</v>
+        <v>6.308062543976082</v>
       </c>
       <c r="D13">
-        <v>5.847002080123962</v>
+        <v>5.622404889160364</v>
       </c>
       <c r="F13">
-        <v>20.19764883391034</v>
+        <v>25.46811710058552</v>
       </c>
       <c r="G13">
-        <v>25.46681697324171</v>
+        <v>30.75715540138747</v>
       </c>
       <c r="H13">
-        <v>9.0006797648809</v>
+        <v>14.70434119925043</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.46325136101903</v>
+        <v>10.37229278196218</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -841,28 +841,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.63093729583237</v>
+        <v>11.4869578989368</v>
       </c>
       <c r="C14">
-        <v>9.465452647867448</v>
+        <v>6.274578667510731</v>
       </c>
       <c r="D14">
-        <v>5.822424097597393</v>
+        <v>5.612778171392988</v>
       </c>
       <c r="F14">
-        <v>20.12893155119911</v>
+        <v>25.47586356821092</v>
       </c>
       <c r="G14">
-        <v>25.38298980452475</v>
+        <v>30.7726782911127</v>
       </c>
       <c r="H14">
-        <v>9.015112422133342</v>
+        <v>14.71519544528235</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.33695758829156</v>
+        <v>10.32646333425986</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -876,28 +876,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.53424854387491</v>
+        <v>11.44874822789951</v>
       </c>
       <c r="C15">
-        <v>9.423064779620603</v>
+        <v>6.253964113915552</v>
       </c>
       <c r="D15">
-        <v>5.807323155776906</v>
+        <v>5.606868343046157</v>
       </c>
       <c r="F15">
-        <v>20.08746434004691</v>
+        <v>25.48077912010777</v>
       </c>
       <c r="G15">
-        <v>25.33281422875039</v>
+        <v>30.78245057961457</v>
       </c>
       <c r="H15">
-        <v>9.024194754976209</v>
+        <v>14.72190342495775</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.25915337205896</v>
+        <v>10.29831263766028</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -911,28 +911,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.97109568613484</v>
+        <v>11.22766657842133</v>
       </c>
       <c r="C16">
-        <v>9.176838651100597</v>
+        <v>6.134243072363174</v>
       </c>
       <c r="D16">
-        <v>5.720088045362451</v>
+        <v>5.572803774121843</v>
       </c>
       <c r="F16">
-        <v>19.8592978000394</v>
+        <v>25.51155790717885</v>
       </c>
       <c r="G16">
-        <v>25.06297121229338</v>
+        <v>30.84248468880654</v>
       </c>
       <c r="H16">
-        <v>9.07983730308546</v>
+        <v>14.76125442268695</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.80643654947796</v>
+        <v>10.13582823128608</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -946,28 +946,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.61747503200829</v>
+        <v>11.09021503222192</v>
       </c>
       <c r="C17">
-        <v>9.022831743202108</v>
+        <v>6.059401697787274</v>
       </c>
       <c r="D17">
-        <v>5.665961799430587</v>
+        <v>5.551734615426523</v>
       </c>
       <c r="F17">
-        <v>19.72765658700423</v>
+        <v>25.53276237726179</v>
       </c>
       <c r="G17">
-        <v>24.91292646203127</v>
+        <v>30.8828964365842</v>
       </c>
       <c r="H17">
-        <v>9.117061352892915</v>
+        <v>14.78620639926722</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.52257335880299</v>
+        <v>10.03516002549207</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -981,28 +981,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.41106835802273</v>
+        <v>11.01051240428533</v>
       </c>
       <c r="C18">
-        <v>8.93316826946945</v>
+        <v>6.01585009269162</v>
       </c>
       <c r="D18">
-        <v>5.634610647937261</v>
+        <v>5.53955502743107</v>
       </c>
       <c r="F18">
-        <v>19.65495425695138</v>
+        <v>25.54580971391819</v>
       </c>
       <c r="G18">
-        <v>24.83219680974115</v>
+        <v>30.9074503630844</v>
       </c>
       <c r="H18">
-        <v>9.139561025896761</v>
+        <v>14.80085597722999</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.35704014906416</v>
+        <v>9.976915005377133</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1016,28 +1016,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.34066316446295</v>
+        <v>10.98341845831779</v>
       </c>
       <c r="C19">
-        <v>8.902624183479395</v>
+        <v>6.001018392841844</v>
       </c>
       <c r="D19">
-        <v>5.623958556318639</v>
+        <v>5.535420906143164</v>
       </c>
       <c r="F19">
-        <v>19.63085145977276</v>
+        <v>25.5503732478433</v>
       </c>
       <c r="G19">
-        <v>24.80580796038087</v>
+        <v>30.91598829232175</v>
       </c>
       <c r="H19">
-        <v>9.147361904211463</v>
+        <v>14.80586719951334</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.30060421260667</v>
+        <v>9.957137250129769</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.65542998237706</v>
+        <v>11.10491426681603</v>
       </c>
       <c r="C20">
-        <v>9.039338192257539</v>
+        <v>6.067421132216066</v>
       </c>
       <c r="D20">
-        <v>5.671746433632968</v>
+        <v>5.553983837133159</v>
       </c>
       <c r="F20">
-        <v>19.741356948337</v>
+        <v>25.53041698325598</v>
       </c>
       <c r="G20">
-        <v>24.92831942730548</v>
+        <v>30.87845879176639</v>
       </c>
       <c r="H20">
-        <v>9.112985029541262</v>
+        <v>14.7835193838508</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.55302509573823</v>
+        <v>10.04591232723894</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.67714251393156</v>
+        <v>11.50524214522723</v>
       </c>
       <c r="C21">
-        <v>9.485720026067272</v>
+        <v>6.284435556583788</v>
       </c>
       <c r="D21">
-        <v>5.829652903306695</v>
+        <v>5.615608530060275</v>
       </c>
       <c r="F21">
-        <v>20.14898518481574</v>
+        <v>25.47355267401286</v>
       </c>
       <c r="G21">
-        <v>25.40736725288208</v>
+        <v>30.76806377608763</v>
       </c>
       <c r="H21">
-        <v>9.010822512639747</v>
+        <v>14.71199490085885</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.37414594491377</v>
+        <v>10.33994108737776</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1121,28 +1121,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.31849756596307</v>
+        <v>11.76059991824221</v>
       </c>
       <c r="C22">
-        <v>9.767763069258484</v>
+        <v>6.421602091944625</v>
       </c>
       <c r="D22">
-        <v>5.930798659727947</v>
+        <v>5.655298795324633</v>
       </c>
       <c r="F22">
-        <v>20.44320345582915</v>
+        <v>25.44401841308047</v>
       </c>
       <c r="G22">
-        <v>25.77254487404203</v>
+        <v>30.70771615919485</v>
       </c>
       <c r="H22">
-        <v>8.954755325374228</v>
+        <v>14.66790903934999</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.89082821228124</v>
+        <v>10.52863075342591</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1156,28 +1156,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.97858712471089</v>
+        <v>11.62490986198037</v>
       </c>
       <c r="C23">
-        <v>9.618119407949779</v>
+        <v>6.348828156435057</v>
       </c>
       <c r="D23">
-        <v>5.877007897148575</v>
+        <v>5.634170811182677</v>
       </c>
       <c r="F23">
-        <v>20.2835855739776</v>
+        <v>25.4590809591585</v>
       </c>
       <c r="G23">
-        <v>25.5727667933355</v>
+        <v>30.7388386462416</v>
       </c>
       <c r="H23">
-        <v>8.98364954595014</v>
+        <v>14.69119479668949</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.61688195159174</v>
+        <v>10.42826075024451</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1191,28 +1191,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.63828022688277</v>
+        <v>11.09827085433188</v>
       </c>
       <c r="C24">
-        <v>9.031879123310611</v>
+        <v>6.063797177065802</v>
       </c>
       <c r="D24">
-        <v>5.669131925828239</v>
+        <v>5.552967171131562</v>
       </c>
       <c r="F24">
-        <v>19.73515374428624</v>
+        <v>25.53147466817851</v>
       </c>
       <c r="G24">
-        <v>24.9213430622417</v>
+        <v>30.88046093866169</v>
       </c>
       <c r="H24">
-        <v>9.114824522781637</v>
+        <v>14.7847332355265</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.53926514488379</v>
+        <v>10.04105235783738</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.0771058216255</v>
+        <v>10.505989124921</v>
       </c>
       <c r="C25">
-        <v>8.358231440997638</v>
+        <v>5.737177739532009</v>
       </c>
       <c r="D25">
-        <v>5.43660731845941</v>
+        <v>5.46306232877331</v>
       </c>
       <c r="F25">
-        <v>19.25805468051727</v>
+        <v>25.64206368456227</v>
       </c>
       <c r="G25">
-        <v>24.42973246760348</v>
+        <v>31.08322172128228</v>
       </c>
       <c r="H25">
-        <v>9.297477630426677</v>
+        <v>14.89701365656715</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.2903473718833</v>
+        <v>9.610554420126002</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.05247427851054</v>
+        <v>13.82598461664254</v>
       </c>
       <c r="C2">
-        <v>5.481286445270841</v>
+        <v>7.827381531899408</v>
       </c>
       <c r="D2">
-        <v>5.395086469004689</v>
+        <v>5.258921400855823</v>
       </c>
       <c r="F2">
-        <v>25.75112018213443</v>
+        <v>18.99865513822028</v>
       </c>
       <c r="G2">
-        <v>31.27472198665229</v>
+        <v>24.2326654574611</v>
       </c>
       <c r="H2">
-        <v>14.989452409211</v>
+        <v>9.46259922011426</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.285031372711872</v>
+        <v>12.29572878089409</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -456,28 +456,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.736296559564558</v>
+        <v>12.91362247236928</v>
       </c>
       <c r="C3">
-        <v>5.298933014485848</v>
+        <v>7.446519355194948</v>
       </c>
       <c r="D3">
-        <v>5.34801924787769</v>
+        <v>5.134863501144792</v>
       </c>
       <c r="F3">
-        <v>25.84208167849445</v>
+        <v>18.87623101614432</v>
       </c>
       <c r="G3">
-        <v>31.43040331321058</v>
+        <v>24.19220291596947</v>
       </c>
       <c r="H3">
-        <v>15.05818048246753</v>
+        <v>9.591500540043549</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.060503429531419</v>
+        <v>11.57486578167356</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.538590381248603</v>
+        <v>12.32131715486133</v>
       </c>
       <c r="C4">
-        <v>5.182829625030983</v>
+        <v>7.202581678529437</v>
       </c>
       <c r="D4">
-        <v>5.318665119364594</v>
+        <v>5.057052971059017</v>
       </c>
       <c r="F4">
-        <v>25.90627772511543</v>
+        <v>18.82589581592507</v>
       </c>
       <c r="G4">
-        <v>31.53861700147895</v>
+        <v>24.2096966050276</v>
       </c>
       <c r="H4">
-        <v>15.10337583662439</v>
+        <v>9.678403175802652</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.921228494228563</v>
+        <v>11.10929693020077</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.45725413334854</v>
+        <v>12.07183289167466</v>
       </c>
       <c r="C5">
-        <v>5.134521825509039</v>
+        <v>7.10070114401034</v>
       </c>
       <c r="D5">
-        <v>5.306594725813303</v>
+        <v>5.024958512241607</v>
       </c>
       <c r="F5">
-        <v>25.93452639921431</v>
+        <v>18.81138961372502</v>
       </c>
       <c r="G5">
-        <v>31.58586655027319</v>
+        <v>24.22691383390278</v>
       </c>
       <c r="H5">
-        <v>15.12254608537365</v>
+        <v>9.715681019197918</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.864200138320705</v>
+        <v>10.91383824700387</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -561,28 +561,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.44370579311625</v>
+        <v>12.02991500696522</v>
       </c>
       <c r="C6">
-        <v>5.126441703009845</v>
+        <v>7.083636631959676</v>
       </c>
       <c r="D6">
-        <v>5.304584077921636</v>
+        <v>5.019606732402011</v>
       </c>
       <c r="F6">
-        <v>25.9393428865236</v>
+        <v>18.80933632894575</v>
       </c>
       <c r="G6">
-        <v>31.59390196500571</v>
+        <v>24.23036540978947</v>
       </c>
       <c r="H6">
-        <v>15.12577473919929</v>
+        <v>9.721981184483049</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.854716644134282</v>
+        <v>10.88103747999221</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -596,28 +596,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.537496390158577</v>
+        <v>12.31798543041217</v>
       </c>
       <c r="C7">
-        <v>5.182182092845555</v>
+        <v>7.201217606476486</v>
       </c>
       <c r="D7">
-        <v>5.318502764588338</v>
+        <v>5.056621661299716</v>
       </c>
       <c r="F7">
-        <v>25.90665025525917</v>
+        <v>18.82567618969075</v>
       </c>
       <c r="G7">
-        <v>31.53924149567582</v>
+        <v>24.20988870520743</v>
       </c>
       <c r="H7">
-        <v>15.10363132614031</v>
+        <v>9.678898478272519</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.920460381901691</v>
+        <v>11.10668406820787</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -631,28 +631,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.944271803123703</v>
+        <v>13.51804098517125</v>
       </c>
       <c r="C8">
-        <v>5.41929571697543</v>
+        <v>7.698187101227669</v>
       </c>
       <c r="D8">
-        <v>5.378955625253218</v>
+        <v>5.216501276044978</v>
       </c>
       <c r="F8">
-        <v>25.78074564092947</v>
+        <v>18.95115041257128</v>
       </c>
       <c r="G8">
-        <v>31.32576702602648</v>
+        <v>24.20959777947708</v>
       </c>
       <c r="H8">
-        <v>15.01252765470338</v>
+        <v>9.505380534140675</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.20795614205486</v>
+        <v>12.05195676730235</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -666,28 +666,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.70845377239852</v>
+        <v>15.61862770087764</v>
       </c>
       <c r="C9">
-        <v>5.849672665236339</v>
+        <v>8.590625285722005</v>
       </c>
       <c r="D9">
-        <v>5.493637742585423</v>
+        <v>5.515988518074794</v>
       </c>
       <c r="F9">
-        <v>25.60049667375626</v>
+        <v>19.40401470553496</v>
       </c>
       <c r="G9">
-        <v>31.0083097569761</v>
+        <v>24.56851141333371</v>
       </c>
       <c r="H9">
-        <v>14.85767302266133</v>
+        <v>9.230890912873162</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.757073078695228</v>
+        <v>13.72268134417789</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.24326151388055</v>
+        <v>17.01103939073255</v>
       </c>
       <c r="C10">
-        <v>6.142713971452904</v>
+        <v>9.194264929089602</v>
       </c>
       <c r="D10">
-        <v>5.575199484428476</v>
+        <v>5.726234149003677</v>
       </c>
       <c r="F10">
-        <v>25.50925383793213</v>
+        <v>19.8747309336216</v>
       </c>
       <c r="G10">
-        <v>30.83805143289617</v>
+        <v>25.08085646069681</v>
       </c>
       <c r="H10">
-        <v>14.75844761351873</v>
+        <v>9.075740676376356</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.14726716744912</v>
+        <v>14.83852124567441</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -736,28 +736,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.47965940838266</v>
+        <v>17.61248239179767</v>
       </c>
       <c r="C11">
-        <v>6.270642730555852</v>
+        <v>9.457359643176273</v>
       </c>
       <c r="D11">
-        <v>5.611648809808665</v>
+        <v>5.819539068068492</v>
       </c>
       <c r="F11">
-        <v>25.47679345659133</v>
+        <v>20.12096481434372</v>
       </c>
       <c r="G11">
-        <v>30.77453140056531</v>
+        <v>25.37332544841892</v>
       </c>
       <c r="H11">
-        <v>14.71647469132315</v>
+        <v>9.016834988063303</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.32108469942936</v>
+        <v>15.3221054920573</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -771,28 +771,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.56810622769365</v>
+        <v>17.8357021364097</v>
       </c>
       <c r="C12">
-        <v>6.318287888524289</v>
+        <v>9.555324738494116</v>
       </c>
       <c r="D12">
-        <v>5.625351464098494</v>
+        <v>5.854519982309502</v>
       </c>
       <c r="F12">
-        <v>25.4658099045444</v>
+        <v>20.21896987525053</v>
       </c>
       <c r="G12">
-        <v>30.75250106917444</v>
+        <v>25.49299087465264</v>
       </c>
       <c r="H12">
-        <v>14.7010366459121</v>
+        <v>8.996351865479692</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.38631376977099</v>
+        <v>15.50179971970448</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -806,28 +806,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.54910649815009</v>
+        <v>17.78782834648327</v>
       </c>
       <c r="C13">
-        <v>6.308062543976082</v>
+        <v>9.534300236399483</v>
       </c>
       <c r="D13">
-        <v>5.622404889160364</v>
+        <v>5.847002080124033</v>
       </c>
       <c r="F13">
-        <v>25.46811710058552</v>
+        <v>20.19764883391031</v>
       </c>
       <c r="G13">
-        <v>30.75715540138747</v>
+        <v>25.46681697324172</v>
       </c>
       <c r="H13">
-        <v>14.70434119925043</v>
+        <v>9.000679764880873</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.37229278196218</v>
+        <v>15.46325136101903</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -841,28 +841,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.4869578989368</v>
+        <v>17.63093729583232</v>
       </c>
       <c r="C14">
-        <v>6.274578667510731</v>
+        <v>9.465452647867362</v>
       </c>
       <c r="D14">
-        <v>5.612778171392988</v>
+        <v>5.822424097597532</v>
       </c>
       <c r="F14">
-        <v>25.47586356821092</v>
+        <v>20.12893155119923</v>
       </c>
       <c r="G14">
-        <v>30.7726782911127</v>
+        <v>25.382989804525</v>
       </c>
       <c r="H14">
-        <v>14.71519544528235</v>
+        <v>9.015112422133489</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.32646333425986</v>
+        <v>15.33695758829152</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -876,28 +876,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.44874822789951</v>
+        <v>17.53424854387486</v>
       </c>
       <c r="C15">
-        <v>6.253964113915552</v>
+        <v>9.423064779620645</v>
       </c>
       <c r="D15">
-        <v>5.606868343046157</v>
+        <v>5.807323155777111</v>
       </c>
       <c r="F15">
-        <v>25.48077912010777</v>
+        <v>20.08746434004675</v>
       </c>
       <c r="G15">
-        <v>30.78245057961457</v>
+        <v>25.3328142287503</v>
       </c>
       <c r="H15">
-        <v>14.72190342495775</v>
+        <v>9.024194754976175</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.29831263766028</v>
+        <v>15.25915337205895</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -911,28 +911,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.22766657842133</v>
+        <v>16.97109568613484</v>
       </c>
       <c r="C16">
-        <v>6.134243072363174</v>
+        <v>9.176838651100654</v>
       </c>
       <c r="D16">
-        <v>5.572803774121843</v>
+        <v>5.720088045362678</v>
       </c>
       <c r="F16">
-        <v>25.51155790717885</v>
+        <v>19.85929780003937</v>
       </c>
       <c r="G16">
-        <v>30.84248468880654</v>
+        <v>25.06297121229342</v>
       </c>
       <c r="H16">
-        <v>14.76125442268695</v>
+        <v>9.079837303085494</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.13582823128608</v>
+        <v>14.80643654947794</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -946,28 +946,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.09021503222192</v>
+        <v>16.61747503200824</v>
       </c>
       <c r="C17">
-        <v>6.059401697787274</v>
+        <v>9.022831743201969</v>
       </c>
       <c r="D17">
-        <v>5.551734615426523</v>
+        <v>5.665961799430694</v>
       </c>
       <c r="F17">
-        <v>25.53276237726179</v>
+        <v>19.72765658700423</v>
       </c>
       <c r="G17">
-        <v>30.8828964365842</v>
+        <v>24.91292646203128</v>
       </c>
       <c r="H17">
-        <v>14.78620639926722</v>
+        <v>9.11706135289297</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.03516002549207</v>
+        <v>14.52257335880293</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -981,28 +981,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.01051240428533</v>
+        <v>16.41106835802274</v>
       </c>
       <c r="C18">
-        <v>6.01585009269162</v>
+        <v>8.933168269469377</v>
       </c>
       <c r="D18">
-        <v>5.53955502743107</v>
+        <v>5.634610647937313</v>
       </c>
       <c r="F18">
-        <v>25.54580971391819</v>
+        <v>19.65495425695138</v>
       </c>
       <c r="G18">
-        <v>30.9074503630844</v>
+        <v>24.8321968097412</v>
       </c>
       <c r="H18">
-        <v>14.80085597722999</v>
+        <v>9.13956102589677</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.976915005377133</v>
+        <v>14.35704014906412</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1016,28 +1016,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.98341845831779</v>
+        <v>16.3406631644629</v>
       </c>
       <c r="C19">
-        <v>6.001018392841844</v>
+        <v>8.902624183479483</v>
       </c>
       <c r="D19">
-        <v>5.535420906143164</v>
+        <v>5.623958556318689</v>
       </c>
       <c r="F19">
-        <v>25.5503732478433</v>
+        <v>19.6308514597728</v>
       </c>
       <c r="G19">
-        <v>30.91598829232175</v>
+        <v>24.80580796038099</v>
       </c>
       <c r="H19">
-        <v>14.80586719951334</v>
+        <v>9.147361904211476</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.957137250129769</v>
+        <v>14.30060421260665</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.10491426681603</v>
+        <v>16.65542998237705</v>
       </c>
       <c r="C20">
-        <v>6.067421132216066</v>
+        <v>9.039338192257567</v>
       </c>
       <c r="D20">
-        <v>5.553983837133159</v>
+        <v>5.671746433633016</v>
       </c>
       <c r="F20">
-        <v>25.53041698325598</v>
+        <v>19.74135694833696</v>
       </c>
       <c r="G20">
-        <v>30.87845879176639</v>
+        <v>24.92831942730558</v>
       </c>
       <c r="H20">
-        <v>14.7835193838508</v>
+        <v>9.112985029541161</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.04591232723894</v>
+        <v>14.55302509573825</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.50524214522723</v>
+        <v>17.67714251393158</v>
       </c>
       <c r="C21">
-        <v>6.284435556583788</v>
+        <v>9.485720026067183</v>
       </c>
       <c r="D21">
-        <v>5.615608530060275</v>
+        <v>5.82965290330675</v>
       </c>
       <c r="F21">
-        <v>25.47355267401286</v>
+        <v>20.14898518481588</v>
       </c>
       <c r="G21">
-        <v>30.76806377608763</v>
+        <v>25.40736725288217</v>
       </c>
       <c r="H21">
-        <v>14.71199490085885</v>
+        <v>9.010822512639894</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.33994108737776</v>
+        <v>15.37414594491377</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1121,28 +1121,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.76059991824221</v>
+        <v>18.31849756596301</v>
       </c>
       <c r="C22">
-        <v>6.421602091944625</v>
+        <v>9.767763069258471</v>
       </c>
       <c r="D22">
-        <v>5.655298795324633</v>
+        <v>5.930798659727905</v>
       </c>
       <c r="F22">
-        <v>25.44401841308047</v>
+        <v>20.44320345582935</v>
       </c>
       <c r="G22">
-        <v>30.70771615919485</v>
+        <v>25.77254487404232</v>
       </c>
       <c r="H22">
-        <v>14.66790903934999</v>
+        <v>8.954755325374432</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.52863075342591</v>
+        <v>15.89082821228117</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1156,28 +1156,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.62490986198037</v>
+        <v>17.97858712471092</v>
       </c>
       <c r="C23">
-        <v>6.348828156435057</v>
+        <v>9.61811940794972</v>
       </c>
       <c r="D23">
-        <v>5.634170811182677</v>
+        <v>5.877007897148321</v>
       </c>
       <c r="F23">
-        <v>25.4590809591585</v>
+        <v>20.28358557397758</v>
       </c>
       <c r="G23">
-        <v>30.7388386462416</v>
+        <v>25.57276679333532</v>
       </c>
       <c r="H23">
-        <v>14.69119479668949</v>
+        <v>8.983649545950126</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.42826075024451</v>
+        <v>15.61688195159177</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1191,28 +1191,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.09827085433188</v>
+        <v>16.63828022688275</v>
       </c>
       <c r="C24">
-        <v>6.063797177065802</v>
+        <v>9.031879123310464</v>
       </c>
       <c r="D24">
-        <v>5.552967171131562</v>
+        <v>5.669131925828299</v>
       </c>
       <c r="F24">
-        <v>25.53147466817851</v>
+        <v>19.73515374428622</v>
       </c>
       <c r="G24">
-        <v>30.88046093866169</v>
+        <v>24.92134306224173</v>
       </c>
       <c r="H24">
-        <v>14.7847332355265</v>
+        <v>9.114824522781607</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.04105235783738</v>
+        <v>14.53926514488376</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.505989124921</v>
+        <v>15.07710582162549</v>
       </c>
       <c r="C25">
-        <v>5.737177739532009</v>
+        <v>8.358231440997656</v>
       </c>
       <c r="D25">
-        <v>5.46306232877331</v>
+        <v>5.436607318459405</v>
       </c>
       <c r="F25">
-        <v>25.64206368456227</v>
+        <v>19.2580546805174</v>
       </c>
       <c r="G25">
-        <v>31.08322172128228</v>
+        <v>24.42973246760376</v>
       </c>
       <c r="H25">
-        <v>14.89701365656715</v>
+        <v>9.297477630426689</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.610554420126002</v>
+        <v>13.2903473718833</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.82598461664254</v>
+        <v>13.96305790343173</v>
       </c>
       <c r="C2">
-        <v>7.827381531899408</v>
+        <v>8.118958225275721</v>
       </c>
       <c r="D2">
-        <v>5.258921400855823</v>
+        <v>6.765369255263385</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>18.99865513822028</v>
+        <v>21.42071059360786</v>
       </c>
       <c r="G2">
-        <v>24.2326654574611</v>
+        <v>23.09187903303227</v>
       </c>
       <c r="H2">
-        <v>9.46259922011426</v>
+        <v>2.863398048666912</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.51325513606488</v>
+      </c>
+      <c r="J2">
+        <v>9.557850980576967</v>
       </c>
       <c r="K2">
-        <v>12.29572878089409</v>
+        <v>15.8511865788971</v>
+      </c>
+      <c r="L2">
+        <v>6.353319159791629</v>
+      </c>
+      <c r="M2">
+        <v>11.62582848717543</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.496357739808761</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>15.49912485990223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.91362247236928</v>
+        <v>13.05658778615069</v>
       </c>
       <c r="C3">
-        <v>7.446519355194948</v>
+        <v>7.983501704701097</v>
       </c>
       <c r="D3">
-        <v>5.134863501144792</v>
+        <v>6.515283407991997</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>18.87623101614432</v>
+        <v>21.3161347275862</v>
       </c>
       <c r="G3">
-        <v>24.19220291596947</v>
+        <v>23.05698742775929</v>
       </c>
       <c r="H3">
-        <v>9.591500540043549</v>
+        <v>3.040837785640258</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.646629796680262</v>
+      </c>
+      <c r="J3">
+        <v>9.619528129842095</v>
       </c>
       <c r="K3">
-        <v>11.57486578167356</v>
+        <v>15.97188679909945</v>
+      </c>
+      <c r="L3">
+        <v>6.310781002550985</v>
+      </c>
+      <c r="M3">
+        <v>11.01501759566651</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.258754267098007</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>15.56921709228024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.32131715486133</v>
+        <v>12.46513407910311</v>
       </c>
       <c r="C4">
-        <v>7.202581678529437</v>
+        <v>7.899318084359595</v>
       </c>
       <c r="D4">
-        <v>5.057052971059017</v>
+        <v>6.357733697536213</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>18.82589581592507</v>
+        <v>21.25877463275061</v>
       </c>
       <c r="G4">
-        <v>24.2096966050276</v>
+        <v>23.04635130506662</v>
       </c>
       <c r="H4">
-        <v>9.678403175802652</v>
+        <v>3.153999840915208</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.732317114047955</v>
+      </c>
+      <c r="J4">
+        <v>9.659884327934591</v>
       </c>
       <c r="K4">
-        <v>11.10929693020077</v>
+        <v>16.04963170366306</v>
+      </c>
+      <c r="L4">
+        <v>6.283718421354227</v>
+      </c>
+      <c r="M4">
+        <v>10.62182831820285</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.109629631749612</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>15.61761498190254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.07183289167466</v>
+        <v>12.21309400701578</v>
       </c>
       <c r="C5">
-        <v>7.10070114401034</v>
+        <v>7.867783717979456</v>
       </c>
       <c r="D5">
-        <v>5.024958512241607</v>
+        <v>6.293070184700693</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>18.81138961372502</v>
+        <v>21.23086847296799</v>
       </c>
       <c r="G5">
-        <v>24.22691383390278</v>
+        <v>23.03469431475273</v>
       </c>
       <c r="H5">
-        <v>9.715681019197918</v>
+        <v>3.201450676994305</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.770695573689252</v>
+      </c>
+      <c r="J5">
+        <v>9.675332499258657</v>
       </c>
       <c r="K5">
-        <v>10.91383824700387</v>
+        <v>16.07803615263059</v>
+      </c>
+      <c r="L5">
+        <v>6.271752459784421</v>
+      </c>
+      <c r="M5">
+        <v>10.45873359761251</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.049488966783208</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>15.63461395443658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.02991500696522</v>
+        <v>12.16798552777155</v>
       </c>
       <c r="C6">
-        <v>7.083636631959676</v>
+        <v>7.866260785589553</v>
       </c>
       <c r="D6">
-        <v>5.019606732402011</v>
+        <v>6.282844065963468</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>18.80933632894575</v>
+        <v>21.21871138072235</v>
       </c>
       <c r="G6">
-        <v>24.23036540978947</v>
+        <v>23.02074404239717</v>
       </c>
       <c r="H6">
-        <v>9.721981184483049</v>
+        <v>3.209718462932784</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.780329319456063</v>
+      </c>
+      <c r="J6">
+        <v>9.675963315066763</v>
       </c>
       <c r="K6">
-        <v>10.88103747999221</v>
+        <v>16.07770477207959</v>
+      </c>
+      <c r="L6">
+        <v>6.268894851780125</v>
+      </c>
+      <c r="M6">
+        <v>10.43334522528543</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.041144232099711</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>15.63258089170741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.31798543041217</v>
+        <v>12.45450366516254</v>
       </c>
       <c r="C7">
-        <v>7.201217606476486</v>
+        <v>7.909076006918464</v>
       </c>
       <c r="D7">
-        <v>5.056621661299716</v>
+        <v>6.35838665601031</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>18.82567618969075</v>
+        <v>21.23763840663482</v>
       </c>
       <c r="G7">
-        <v>24.20988870520743</v>
+        <v>23.01301144649173</v>
       </c>
       <c r="H7">
-        <v>9.678898478272519</v>
+        <v>3.155501169466877</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.741291052298424</v>
+      </c>
+      <c r="J7">
+        <v>9.654719950981026</v>
       </c>
       <c r="K7">
-        <v>11.10668406820787</v>
+        <v>16.03609664485162</v>
+      </c>
+      <c r="L7">
+        <v>6.281239843046799</v>
+      </c>
+      <c r="M7">
+        <v>10.62491739642906</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.113373555720499</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15.60438649300842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.51804098517125</v>
+        <v>13.648861710128</v>
       </c>
       <c r="C8">
-        <v>7.698187101227669</v>
+        <v>8.085989273221642</v>
       </c>
       <c r="D8">
-        <v>5.216501276044978</v>
+        <v>6.681940098523337</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>18.95115041257128</v>
+        <v>21.35612615460839</v>
       </c>
       <c r="G8">
-        <v>24.20959777947708</v>
+        <v>23.03406000553927</v>
       </c>
       <c r="H8">
-        <v>9.505380534140675</v>
+        <v>2.924779447196661</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.569175249721515</v>
+      </c>
+      <c r="J8">
+        <v>9.571547077480361</v>
       </c>
       <c r="K8">
-        <v>12.05195676730235</v>
+        <v>15.87373184728961</v>
+      </c>
+      <c r="L8">
+        <v>6.335872032509999</v>
+      </c>
+      <c r="M8">
+        <v>11.42564753986158</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.420944634222557</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15.504469510627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.61862770087764</v>
+        <v>15.72683580015269</v>
       </c>
       <c r="C9">
-        <v>8.590625285722005</v>
+        <v>8.40662949118847</v>
       </c>
       <c r="D9">
-        <v>5.515988518074794</v>
+        <v>7.278956018043747</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>19.40401470553496</v>
+        <v>21.68006372719298</v>
       </c>
       <c r="G9">
-        <v>24.56851141333371</v>
+        <v>23.22314802392562</v>
       </c>
       <c r="H9">
-        <v>9.230890912873162</v>
+        <v>2.503826305537025</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.247634930212383</v>
+      </c>
+      <c r="J9">
+        <v>9.438155426025343</v>
       </c>
       <c r="K9">
-        <v>13.72268134417789</v>
+        <v>15.6095813845868</v>
+      </c>
+      <c r="L9">
+        <v>6.439482097654876</v>
+      </c>
+      <c r="M9">
+        <v>12.83989939375149</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.98805837789789</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.37661250228318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.01103939073255</v>
+        <v>17.06896568941679</v>
       </c>
       <c r="C10">
-        <v>9.194264929089602</v>
+        <v>8.668702364656655</v>
       </c>
       <c r="D10">
-        <v>5.726234149003677</v>
+        <v>7.64120227177709</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>19.8747309336216</v>
+        <v>21.8249337877674</v>
       </c>
       <c r="G10">
-        <v>25.08085646069681</v>
+        <v>23.25879216240702</v>
       </c>
       <c r="H10">
-        <v>9.075740676376356</v>
+        <v>2.241814068566134</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.038617583853591</v>
+      </c>
+      <c r="J10">
+        <v>9.327040239405147</v>
       </c>
       <c r="K10">
-        <v>14.83852124567441</v>
+        <v>15.37350939887223</v>
+      </c>
+      <c r="L10">
+        <v>6.477214106063419</v>
+      </c>
+      <c r="M10">
+        <v>13.79840516545581</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.296142372069495</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15.24566753683732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.61248239179767</v>
+        <v>17.50586362862917</v>
       </c>
       <c r="C11">
-        <v>9.457359643176273</v>
+        <v>9.057105554938227</v>
       </c>
       <c r="D11">
-        <v>5.819539068068492</v>
+        <v>7.354620699316282</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>20.12096481434372</v>
+        <v>20.85282091633734</v>
       </c>
       <c r="G11">
-        <v>25.37332544841892</v>
+        <v>21.97694997996714</v>
       </c>
       <c r="H11">
-        <v>9.016834988063303</v>
+        <v>3.100033821488488</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.998321000403569</v>
+      </c>
+      <c r="J11">
+        <v>9.069053474936819</v>
       </c>
       <c r="K11">
-        <v>15.3221054920573</v>
+        <v>14.79317804404776</v>
+      </c>
+      <c r="L11">
+        <v>6.261709300860987</v>
+      </c>
+      <c r="M11">
+        <v>14.31008741244604</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.673689363306384</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>14.65797417569021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.8357021364097</v>
+        <v>17.61048816751305</v>
       </c>
       <c r="C12">
-        <v>9.555324738494116</v>
+        <v>9.343644328215838</v>
       </c>
       <c r="D12">
-        <v>5.854519982309502</v>
+        <v>7.03144185514356</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>20.21896987525053</v>
+        <v>20.02977691805542</v>
       </c>
       <c r="G12">
-        <v>25.49299087465264</v>
+        <v>20.93305035932186</v>
       </c>
       <c r="H12">
-        <v>8.996351865479692</v>
+        <v>4.385944056874687</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.988886775567277</v>
+      </c>
+      <c r="J12">
+        <v>8.883848727946084</v>
       </c>
       <c r="K12">
-        <v>15.50179971970448</v>
+        <v>14.39129795587902</v>
+      </c>
+      <c r="L12">
+        <v>6.151637761099949</v>
+      </c>
+      <c r="M12">
+        <v>14.54216891133727</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.092553141588474</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>14.21165672453379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.78782834648327</v>
+        <v>17.46119296737649</v>
       </c>
       <c r="C13">
-        <v>9.534300236399483</v>
+        <v>9.582609782306312</v>
       </c>
       <c r="D13">
-        <v>5.847002080124033</v>
+        <v>6.656089416423015</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>20.19764883391031</v>
+        <v>19.24023251092237</v>
       </c>
       <c r="G13">
-        <v>25.46681697324172</v>
+        <v>19.95955918799095</v>
       </c>
       <c r="H13">
-        <v>9.000679764880873</v>
+        <v>5.759225698430872</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.016794167395096</v>
+      </c>
+      <c r="J13">
+        <v>8.735924270063093</v>
       </c>
       <c r="K13">
-        <v>15.46325136101903</v>
+        <v>14.08462701524691</v>
+      </c>
+      <c r="L13">
+        <v>6.11416312159673</v>
+      </c>
+      <c r="M13">
+        <v>14.58602537050343</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.511586400244783</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13.82841729487379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.63093729583232</v>
+        <v>17.23802823170712</v>
       </c>
       <c r="C14">
-        <v>9.465452647867362</v>
+        <v>9.735317170636787</v>
       </c>
       <c r="D14">
-        <v>5.822424097597532</v>
+        <v>6.36744952763167</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>20.12893155119923</v>
+        <v>18.70330366525012</v>
       </c>
       <c r="G14">
-        <v>25.382989804525</v>
+        <v>19.3108078165305</v>
       </c>
       <c r="H14">
-        <v>9.015112422133489</v>
+        <v>6.745437514032327</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.055947105735605</v>
+      </c>
+      <c r="J14">
+        <v>8.649498030456272</v>
       </c>
       <c r="K14">
-        <v>15.33695758829152</v>
+        <v>13.9162306688457</v>
+      </c>
+      <c r="L14">
+        <v>6.131136763079921</v>
+      </c>
+      <c r="M14">
+        <v>14.53349644967489</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.1123067301122</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13.58975336941667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.53424854387486</v>
+        <v>17.12615821392179</v>
       </c>
       <c r="C15">
-        <v>9.423064779620645</v>
+        <v>9.764794849371421</v>
       </c>
       <c r="D15">
-        <v>5.807323155777111</v>
+        <v>6.286448118296163</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>20.08746434004675</v>
+        <v>18.57465741591807</v>
       </c>
       <c r="G15">
-        <v>25.3328142287503</v>
+        <v>19.15967173273492</v>
       </c>
       <c r="H15">
-        <v>9.024194754976175</v>
+        <v>6.976563191486113</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.078021999532495</v>
+      </c>
+      <c r="J15">
+        <v>8.634873688966827</v>
       </c>
       <c r="K15">
-        <v>15.25915337205895</v>
+        <v>13.89031380954401</v>
+      </c>
+      <c r="L15">
+        <v>6.140025247985391</v>
+      </c>
+      <c r="M15">
+        <v>14.48170399003004</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.014539080851265</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13.54143409690757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.97109568613484</v>
+        <v>16.59466921252856</v>
       </c>
       <c r="C16">
-        <v>9.176838651100654</v>
+        <v>9.613239501218384</v>
       </c>
       <c r="D16">
-        <v>5.720088045362678</v>
+        <v>6.193803512698858</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>19.85929780003937</v>
+        <v>18.65844611908225</v>
       </c>
       <c r="G16">
-        <v>25.06297121229342</v>
+        <v>19.32197818828757</v>
       </c>
       <c r="H16">
-        <v>9.079837303085494</v>
+        <v>6.787832368236602</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.16711139146011</v>
+      </c>
+      <c r="J16">
+        <v>8.710220723564355</v>
       </c>
       <c r="K16">
-        <v>14.80643654947794</v>
+        <v>14.05044540280523</v>
+      </c>
+      <c r="L16">
+        <v>6.126083053980555</v>
+      </c>
+      <c r="M16">
+        <v>14.08572844669978</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.985664643211574</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13.6703411930824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.61747503200824</v>
+        <v>16.30214412770162</v>
       </c>
       <c r="C17">
-        <v>9.022831743201969</v>
+        <v>9.411910873767516</v>
       </c>
       <c r="D17">
-        <v>5.665961799430694</v>
+        <v>6.280269679859325</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>19.72765658700423</v>
+        <v>19.00578073672672</v>
       </c>
       <c r="G17">
-        <v>24.91292646203128</v>
+        <v>19.78640336412012</v>
       </c>
       <c r="H17">
-        <v>9.11706135289297</v>
+        <v>6.090494421030001</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.21539575695493</v>
+      </c>
+      <c r="J17">
+        <v>8.813165404645366</v>
       </c>
       <c r="K17">
-        <v>14.52257335880293</v>
+        <v>14.25869119060197</v>
+      </c>
+      <c r="L17">
+        <v>6.099803118853585</v>
+      </c>
+      <c r="M17">
+        <v>13.8050346671615</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.174871864335066</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.89354454590009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.41106835802274</v>
+        <v>16.19554614267526</v>
       </c>
       <c r="C18">
-        <v>8.933168269469377</v>
+        <v>9.144564695041982</v>
       </c>
       <c r="D18">
-        <v>5.634610647937313</v>
+        <v>6.530783421495758</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>19.65495425695138</v>
+        <v>19.6396468209996</v>
       </c>
       <c r="G18">
-        <v>24.8321968097412</v>
+        <v>20.59455503763265</v>
       </c>
       <c r="H18">
-        <v>9.13956102589677</v>
+        <v>4.916084983210363</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.222706945151495</v>
+      </c>
+      <c r="J18">
+        <v>8.956894956373535</v>
       </c>
       <c r="K18">
-        <v>14.35704014906412</v>
+        <v>14.55288320419722</v>
+      </c>
+      <c r="L18">
+        <v>6.100496148428295</v>
+      </c>
+      <c r="M18">
+        <v>13.59361678728538</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.591509864931852</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14.23692554295605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.3406631644629</v>
+        <v>16.23766880803008</v>
       </c>
       <c r="C19">
-        <v>8.902624183479483</v>
+        <v>8.890467177650532</v>
       </c>
       <c r="D19">
-        <v>5.623958556318689</v>
+        <v>6.895659826386175</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>19.6308514597728</v>
+        <v>20.43757201252967</v>
       </c>
       <c r="G19">
-        <v>24.80580796038099</v>
+        <v>21.58532840180056</v>
       </c>
       <c r="H19">
-        <v>9.147361904211476</v>
+        <v>3.577680554803621</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.212372423824168</v>
+      </c>
+      <c r="J19">
+        <v>9.118230891690196</v>
       </c>
       <c r="K19">
-        <v>14.30060421260665</v>
+        <v>14.89510836270199</v>
+      </c>
+      <c r="L19">
+        <v>6.18070590301864</v>
+      </c>
+      <c r="M19">
+        <v>13.46616055872657</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.189784804901494</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>14.64026096844575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.65542998237705</v>
+        <v>16.70938289991996</v>
       </c>
       <c r="C20">
-        <v>9.039338192257567</v>
+        <v>8.633846090940223</v>
       </c>
       <c r="D20">
-        <v>5.671746433633016</v>
+        <v>7.549302702088151</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>19.74135694833696</v>
+        <v>21.71810922386085</v>
       </c>
       <c r="G20">
-        <v>24.92831942730558</v>
+        <v>23.13964719031824</v>
       </c>
       <c r="H20">
-        <v>9.112985029541161</v>
+        <v>2.311149937980523</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.121018307625551</v>
+      </c>
+      <c r="J20">
+        <v>9.338023518551454</v>
       </c>
       <c r="K20">
-        <v>14.55302509573825</v>
+        <v>15.38951277190433</v>
+      </c>
+      <c r="L20">
+        <v>6.459665837623778</v>
+      </c>
+      <c r="M20">
+        <v>13.56730029392056</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.224602738621257</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.23453817273205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.67714251393158</v>
+        <v>17.71564403322527</v>
       </c>
       <c r="C21">
-        <v>9.485720026067183</v>
+        <v>8.785564872866242</v>
       </c>
       <c r="D21">
-        <v>5.82965290330675</v>
+        <v>7.898379504476067</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>20.14898518481588</v>
+        <v>22.03680939184665</v>
       </c>
       <c r="G21">
-        <v>25.40736725288217</v>
+        <v>23.43610675250155</v>
       </c>
       <c r="H21">
-        <v>9.010822512639894</v>
+        <v>2.074158559810782</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.954207051239409</v>
+      </c>
+      <c r="J21">
+        <v>9.297080085031926</v>
       </c>
       <c r="K21">
-        <v>15.37414594491377</v>
+        <v>15.30775388199066</v>
+      </c>
+      <c r="L21">
+        <v>6.539437674808636</v>
+      </c>
+      <c r="M21">
+        <v>14.25324778996532</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.590995662539866</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15.24557726305814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.31849756596301</v>
+        <v>18.34220686804773</v>
       </c>
       <c r="C22">
-        <v>9.767763069258471</v>
+        <v>8.884385693286587</v>
       </c>
       <c r="D22">
-        <v>5.930798659727905</v>
+        <v>8.092807827419032</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>20.44320345582935</v>
+        <v>22.21620238163134</v>
       </c>
       <c r="G22">
-        <v>25.77254487404232</v>
+        <v>23.60747332389397</v>
       </c>
       <c r="H22">
-        <v>8.954755325374432</v>
+        <v>1.934824868027364</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.83864325427561</v>
+      </c>
+      <c r="J22">
+        <v>9.267716460625651</v>
       </c>
       <c r="K22">
-        <v>15.89082821228117</v>
+        <v>15.24832890822009</v>
+      </c>
+      <c r="L22">
+        <v>6.576646662451704</v>
+      </c>
+      <c r="M22">
+        <v>14.68420222416059</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.774745923485403</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15.2453356821676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.97858712471092</v>
+        <v>18.01670960129209</v>
       </c>
       <c r="C23">
-        <v>9.61811940794972</v>
+        <v>8.81966573354482</v>
       </c>
       <c r="D23">
-        <v>5.877007897148321</v>
+        <v>7.988084241885051</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>20.28358557397758</v>
+        <v>22.14265705665044</v>
       </c>
       <c r="G23">
-        <v>25.57276679333532</v>
+        <v>23.55190858024863</v>
       </c>
       <c r="H23">
-        <v>8.983649545950126</v>
+        <v>2.008130119268616</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.88872424157735</v>
+      </c>
+      <c r="J23">
+        <v>9.289299956594776</v>
       </c>
       <c r="K23">
-        <v>15.61688195159177</v>
+        <v>15.29577784567939</v>
+      </c>
+      <c r="L23">
+        <v>6.559278632965036</v>
+      </c>
+      <c r="M23">
+        <v>14.45089031840826</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.672575700837779</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>15.26030560452956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.63828022688275</v>
+        <v>16.71485736118622</v>
       </c>
       <c r="C24">
-        <v>9.031879123310464</v>
+        <v>8.591476256019194</v>
       </c>
       <c r="D24">
-        <v>5.669131925828299</v>
+        <v>7.582877752578296</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>19.73515374428622</v>
+        <v>21.84210970134042</v>
       </c>
       <c r="G24">
-        <v>24.92134306224173</v>
+        <v>23.30878456912603</v>
       </c>
       <c r="H24">
-        <v>9.114824522781607</v>
+        <v>2.293469038237244</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.102813687298089</v>
+      </c>
+      <c r="J24">
+        <v>9.366824887704425</v>
       </c>
       <c r="K24">
-        <v>14.53926514488376</v>
+        <v>15.45838783520661</v>
+      </c>
+      <c r="L24">
+        <v>6.488136119094063</v>
+      </c>
+      <c r="M24">
+        <v>13.53965392493246</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.283595081958378</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15.3055596782305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.07710582162549</v>
+        <v>15.18311260351745</v>
       </c>
       <c r="C25">
-        <v>8.358231440997656</v>
+        <v>8.339339732387325</v>
       </c>
       <c r="D25">
-        <v>5.436607318459405</v>
+        <v>7.124064574783453</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>19.2580546805174</v>
+        <v>21.55017319311945</v>
       </c>
       <c r="G25">
-        <v>24.42973246760376</v>
+        <v>23.10344607065861</v>
       </c>
       <c r="H25">
-        <v>9.297477630426689</v>
+        <v>2.615591712577981</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.346851844480251</v>
+      </c>
+      <c r="J25">
+        <v>9.462469973626062</v>
       </c>
       <c r="K25">
-        <v>13.2903473718833</v>
+        <v>15.65294684595591</v>
+      </c>
+      <c r="L25">
+        <v>6.408347629312103</v>
+      </c>
+      <c r="M25">
+        <v>12.48184320120283</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.845534199541857</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15.38227330880317</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.96305790343173</v>
+        <v>13.94227974676689</v>
       </c>
       <c r="C2">
-        <v>8.118958225275721</v>
+        <v>7.795010354525117</v>
       </c>
       <c r="D2">
-        <v>6.765369255263385</v>
+        <v>6.807010407034893</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.42071059360786</v>
+        <v>20.87892799730518</v>
       </c>
       <c r="G2">
-        <v>23.09187903303227</v>
+        <v>21.80721842980703</v>
       </c>
       <c r="H2">
-        <v>2.863398048666912</v>
+        <v>2.746221854288449</v>
       </c>
       <c r="I2">
-        <v>3.51325513606488</v>
+        <v>3.357461386004823</v>
       </c>
       <c r="J2">
-        <v>9.557850980576967</v>
+        <v>9.620004096024068</v>
       </c>
       <c r="K2">
-        <v>15.8511865788971</v>
+        <v>15.28365253330751</v>
       </c>
       <c r="L2">
-        <v>6.353319159791629</v>
+        <v>12.31673398948356</v>
       </c>
       <c r="M2">
-        <v>11.62582848717543</v>
+        <v>10.2485508943744</v>
       </c>
       <c r="N2">
-        <v>7.496357739808761</v>
+        <v>6.277881635953431</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.7151750724824</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.669646317119924</v>
       </c>
       <c r="Q2">
-        <v>15.49912485990223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.08346460756748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.05658778615069</v>
+        <v>13.05912204957057</v>
       </c>
       <c r="C3">
-        <v>7.983501704701097</v>
+        <v>7.59634958141679</v>
       </c>
       <c r="D3">
-        <v>6.515283407991997</v>
+        <v>6.55619870113536</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.3161347275862</v>
+        <v>20.81136088852375</v>
       </c>
       <c r="G3">
-        <v>23.05698742775929</v>
+        <v>21.87433692004273</v>
       </c>
       <c r="H3">
-        <v>3.040837785640258</v>
+        <v>2.91321302848904</v>
       </c>
       <c r="I3">
-        <v>3.646629796680262</v>
+        <v>3.47714761774429</v>
       </c>
       <c r="J3">
-        <v>9.619528129842095</v>
+        <v>9.656820146405517</v>
       </c>
       <c r="K3">
-        <v>15.97188679909945</v>
+        <v>15.42105737637557</v>
       </c>
       <c r="L3">
-        <v>6.310781002550985</v>
+        <v>12.47589943239015</v>
       </c>
       <c r="M3">
-        <v>11.01501759566651</v>
+        <v>10.33541346462384</v>
       </c>
       <c r="N3">
-        <v>7.258754267098007</v>
+        <v>6.240587780857665</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.09276223131426</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.429116268172588</v>
       </c>
       <c r="Q3">
-        <v>15.56921709228024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.17396910252954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.46513407910311</v>
+        <v>12.48312994704392</v>
       </c>
       <c r="C4">
-        <v>7.899318084359595</v>
+        <v>7.4732173027532</v>
       </c>
       <c r="D4">
-        <v>6.357733697536213</v>
+        <v>6.398328874980821</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.25877463275061</v>
+        <v>20.77564570737573</v>
       </c>
       <c r="G4">
-        <v>23.04635130506662</v>
+        <v>21.9272380136011</v>
       </c>
       <c r="H4">
-        <v>3.153999840915208</v>
+        <v>3.019743573696018</v>
       </c>
       <c r="I4">
-        <v>3.732317114047955</v>
+        <v>3.554318633096601</v>
       </c>
       <c r="J4">
-        <v>9.659884327934591</v>
+        <v>9.680533465315417</v>
       </c>
       <c r="K4">
-        <v>16.04963170366306</v>
+        <v>15.50812983660695</v>
       </c>
       <c r="L4">
-        <v>6.283718421354227</v>
+        <v>12.57654570896598</v>
       </c>
       <c r="M4">
-        <v>10.62182831820285</v>
+        <v>10.4039936050992</v>
       </c>
       <c r="N4">
-        <v>7.109629631749612</v>
+        <v>6.216755018823051</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.69221704536549</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.278533127006684</v>
       </c>
       <c r="Q4">
-        <v>15.61761498190254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.23397283701677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.21309400701578</v>
+        <v>12.23772469408648</v>
       </c>
       <c r="C5">
-        <v>7.867783717979456</v>
+        <v>7.426485269305543</v>
       </c>
       <c r="D5">
-        <v>6.293070184700693</v>
+        <v>6.333566512972324</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.23086847296799</v>
+        <v>20.75637024553772</v>
       </c>
       <c r="G5">
-        <v>23.03469431475273</v>
+        <v>21.9418115639755</v>
       </c>
       <c r="H5">
-        <v>3.201450676994305</v>
+        <v>3.064431138688609</v>
       </c>
       <c r="I5">
-        <v>3.770695573689252</v>
+        <v>3.589633574230105</v>
       </c>
       <c r="J5">
-        <v>9.675332499258657</v>
+        <v>9.688847080802818</v>
       </c>
       <c r="K5">
-        <v>16.07803615263059</v>
+        <v>15.54025623990036</v>
       </c>
       <c r="L5">
-        <v>6.271752459784421</v>
+        <v>12.61417724427452</v>
       </c>
       <c r="M5">
-        <v>10.45873359761251</v>
+        <v>10.43377827584741</v>
       </c>
       <c r="N5">
-        <v>7.049488966783208</v>
+        <v>6.206131087806419</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.52606693239733</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.217858322725795</v>
       </c>
       <c r="Q5">
-        <v>15.63461395443658</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.25555661450196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.16798552777155</v>
+        <v>12.19377538275815</v>
       </c>
       <c r="C6">
-        <v>7.866260785589553</v>
+        <v>7.423275792568859</v>
       </c>
       <c r="D6">
-        <v>6.282844065963468</v>
+        <v>6.323321872361404</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.21871138072235</v>
+        <v>20.7457401212094</v>
       </c>
       <c r="G6">
-        <v>23.02074404239717</v>
+        <v>21.93242242167776</v>
       </c>
       <c r="H6">
-        <v>3.209718462932784</v>
+        <v>3.072230017791802</v>
       </c>
       <c r="I6">
-        <v>3.780329319456063</v>
+        <v>3.599330723897773</v>
       </c>
       <c r="J6">
-        <v>9.675963315066763</v>
+        <v>9.688256985684523</v>
       </c>
       <c r="K6">
-        <v>16.07770477207959</v>
+        <v>15.54071200198474</v>
       </c>
       <c r="L6">
-        <v>6.268894851780125</v>
+        <v>12.61544903323867</v>
       </c>
       <c r="M6">
-        <v>10.43334522528543</v>
+        <v>10.43657434302289</v>
       </c>
       <c r="N6">
-        <v>7.041144232099711</v>
+        <v>6.203526050559746</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.50015651872419</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.209391915341065</v>
       </c>
       <c r="Q6">
-        <v>15.63258089170741</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.25437500514725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.45450366516254</v>
+        <v>12.47352547965775</v>
       </c>
       <c r="C7">
-        <v>7.909076006918464</v>
+        <v>7.482421685708718</v>
       </c>
       <c r="D7">
-        <v>6.35838665601031</v>
+        <v>6.402415639288389</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.23763840663482</v>
+        <v>20.74405456607352</v>
       </c>
       <c r="G7">
-        <v>23.01301144649173</v>
+        <v>21.95428703433505</v>
       </c>
       <c r="H7">
-        <v>3.155501169466877</v>
+        <v>3.021627941595699</v>
       </c>
       <c r="I7">
-        <v>3.741291052298424</v>
+        <v>3.565185345601325</v>
       </c>
       <c r="J7">
-        <v>9.654719950981026</v>
+        <v>9.64809844755163</v>
       </c>
       <c r="K7">
-        <v>16.03609664485162</v>
+        <v>15.4900629585212</v>
       </c>
       <c r="L7">
-        <v>6.281239843046799</v>
+        <v>12.55864063047535</v>
       </c>
       <c r="M7">
-        <v>10.62491739642906</v>
+        <v>10.39489204950974</v>
       </c>
       <c r="N7">
-        <v>7.113373555720499</v>
+        <v>6.214040057416409</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.69404846158927</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.282242979456215</v>
       </c>
       <c r="Q7">
-        <v>15.60438649300842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.21352202020457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.648861710128</v>
+        <v>13.63858736255522</v>
       </c>
       <c r="C8">
-        <v>8.085989273221642</v>
+        <v>7.73484044531091</v>
       </c>
       <c r="D8">
-        <v>6.681940098523337</v>
+        <v>6.734282527606543</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.35612615460839</v>
+        <v>20.79214046472663</v>
       </c>
       <c r="G8">
-        <v>23.03406000553927</v>
+        <v>21.98452944516921</v>
       </c>
       <c r="H8">
-        <v>2.924779447196661</v>
+        <v>2.805362335221316</v>
       </c>
       <c r="I8">
-        <v>3.569175249721515</v>
+        <v>3.411913791164805</v>
       </c>
       <c r="J8">
-        <v>9.571547077480361</v>
+        <v>9.537356796399449</v>
       </c>
       <c r="K8">
-        <v>15.87373184728961</v>
+        <v>15.29633841352834</v>
       </c>
       <c r="L8">
-        <v>6.335872032509999</v>
+        <v>12.33995659706471</v>
       </c>
       <c r="M8">
-        <v>11.42564753986158</v>
+        <v>10.25443505098108</v>
       </c>
       <c r="N8">
-        <v>7.420944634222557</v>
+        <v>6.261322907378658</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.5073752847891</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.593295491857512</v>
       </c>
       <c r="Q8">
-        <v>15.504469510627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.07152848962459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.72683580015269</v>
+        <v>15.66448162404366</v>
       </c>
       <c r="C9">
-        <v>8.40662949118847</v>
+        <v>8.206651227290552</v>
       </c>
       <c r="D9">
-        <v>7.278956018043747</v>
+        <v>7.335687466407337</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.68006372719298</v>
+        <v>21.0089920789381</v>
       </c>
       <c r="G9">
-        <v>23.22314802392562</v>
+        <v>21.98058357637337</v>
       </c>
       <c r="H9">
-        <v>2.503826305537025</v>
+        <v>2.409545043904253</v>
       </c>
       <c r="I9">
-        <v>3.247634930212383</v>
+        <v>3.122516945320091</v>
       </c>
       <c r="J9">
-        <v>9.438155426025343</v>
+        <v>9.434002197334591</v>
       </c>
       <c r="K9">
-        <v>15.6095813845868</v>
+        <v>14.98019512508228</v>
       </c>
       <c r="L9">
-        <v>6.439482097654876</v>
+        <v>11.97343571609157</v>
       </c>
       <c r="M9">
-        <v>12.83989939375149</v>
+        <v>10.12663440978206</v>
       </c>
       <c r="N9">
-        <v>7.98805837789789</v>
+        <v>6.351682071613506</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.94848822592108</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.16948720231408</v>
       </c>
       <c r="Q9">
-        <v>15.37661250228318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.88040544490688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.06896568941679</v>
+        <v>16.9791436458857</v>
       </c>
       <c r="C10">
-        <v>8.668702364656655</v>
+        <v>8.565493286959194</v>
       </c>
       <c r="D10">
-        <v>7.64120227177709</v>
+        <v>7.717873995205863</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.8249337877674</v>
+        <v>21.02114341909069</v>
       </c>
       <c r="G10">
-        <v>23.25879216240702</v>
+        <v>22.25038886076555</v>
       </c>
       <c r="H10">
-        <v>2.241814068566134</v>
+        <v>2.166948126609643</v>
       </c>
       <c r="I10">
-        <v>3.038617583853591</v>
+        <v>2.939093696050927</v>
       </c>
       <c r="J10">
-        <v>9.327040239405147</v>
+        <v>9.197248394670751</v>
       </c>
       <c r="K10">
-        <v>15.37350939887223</v>
+        <v>14.68207083793281</v>
       </c>
       <c r="L10">
-        <v>6.477214106063419</v>
+        <v>11.66135365130711</v>
       </c>
       <c r="M10">
-        <v>13.79840516545581</v>
+        <v>10.04435497407731</v>
       </c>
       <c r="N10">
-        <v>8.296142372069495</v>
+        <v>6.380898619694748</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.91803197076568</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.484099823464623</v>
       </c>
       <c r="Q10">
-        <v>15.24566753683732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.66253682462183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.50586362862917</v>
+        <v>17.43090702933994</v>
       </c>
       <c r="C11">
-        <v>9.057105554938227</v>
+        <v>8.978139506198762</v>
       </c>
       <c r="D11">
-        <v>7.354620699316282</v>
+        <v>7.4631154287121</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.85282091633734</v>
+        <v>19.97961874176691</v>
       </c>
       <c r="G11">
-        <v>21.97694997996714</v>
+        <v>21.7828789611175</v>
       </c>
       <c r="H11">
-        <v>3.100033821488488</v>
+        <v>3.052098010975659</v>
       </c>
       <c r="I11">
-        <v>2.998321000403569</v>
+        <v>2.912342516527092</v>
       </c>
       <c r="J11">
-        <v>9.069053474936819</v>
+        <v>8.739980295712067</v>
       </c>
       <c r="K11">
-        <v>14.79317804404776</v>
+        <v>14.11360774504311</v>
       </c>
       <c r="L11">
-        <v>6.261709300860987</v>
+        <v>11.23204461831146</v>
       </c>
       <c r="M11">
-        <v>14.31008741244604</v>
+        <v>9.644248626149865</v>
       </c>
       <c r="N11">
-        <v>7.673689363306384</v>
+        <v>6.181889178800717</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.41084950834034</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.851019192750637</v>
       </c>
       <c r="Q11">
-        <v>14.65797417569021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.03207081460019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.61048816751305</v>
+        <v>17.55143250557253</v>
       </c>
       <c r="C12">
-        <v>9.343644328215838</v>
+        <v>9.259204462254228</v>
       </c>
       <c r="D12">
-        <v>7.03144185514356</v>
+        <v>7.151495745610633</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.02977691805542</v>
+        <v>19.16771168026055</v>
       </c>
       <c r="G12">
-        <v>20.93305035932186</v>
+        <v>21.13398420213388</v>
       </c>
       <c r="H12">
-        <v>4.385944056874687</v>
+        <v>4.352859971513294</v>
       </c>
       <c r="I12">
-        <v>2.988886775567277</v>
+        <v>2.905330926719801</v>
       </c>
       <c r="J12">
-        <v>8.883848727946084</v>
+        <v>8.531947224614942</v>
       </c>
       <c r="K12">
-        <v>14.39129795587902</v>
+        <v>13.75527170899611</v>
       </c>
       <c r="L12">
-        <v>6.151637761099949</v>
+        <v>10.98874699653228</v>
       </c>
       <c r="M12">
-        <v>14.54216891133727</v>
+        <v>9.355844519209917</v>
       </c>
       <c r="N12">
-        <v>7.092553141588474</v>
+        <v>6.087659707182282</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.62748435814156</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.25897378952031</v>
       </c>
       <c r="Q12">
-        <v>14.21165672453379</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.59879262244882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46119296737649</v>
+        <v>17.41861502850547</v>
       </c>
       <c r="C13">
-        <v>9.582609782306312</v>
+        <v>9.48328870121084</v>
       </c>
       <c r="D13">
-        <v>6.656089416423015</v>
+        <v>6.766015226509496</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.24023251092237</v>
+        <v>18.47265773950961</v>
       </c>
       <c r="G13">
-        <v>19.95955918799095</v>
+        <v>20.09972450334838</v>
       </c>
       <c r="H13">
-        <v>5.759225698430872</v>
+        <v>5.732304639688451</v>
       </c>
       <c r="I13">
-        <v>3.016794167395096</v>
+        <v>2.92931863273784</v>
       </c>
       <c r="J13">
-        <v>8.735924270063093</v>
+        <v>8.476577673991867</v>
       </c>
       <c r="K13">
-        <v>14.08462701524691</v>
+        <v>13.52243188155683</v>
       </c>
       <c r="L13">
-        <v>6.11416312159673</v>
+        <v>10.84465542337097</v>
       </c>
       <c r="M13">
-        <v>14.58602537050343</v>
+        <v>9.136929304949792</v>
       </c>
       <c r="N13">
-        <v>6.511586400244783</v>
+        <v>6.065394670066214</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.65932993350487</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.666389967155023</v>
       </c>
       <c r="Q13">
-        <v>13.82841729487379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.28483160147012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.23802823170712</v>
+        <v>17.20756080807551</v>
       </c>
       <c r="C14">
-        <v>9.735317170636787</v>
+        <v>9.621815478642839</v>
       </c>
       <c r="D14">
-        <v>6.36744952763167</v>
+        <v>6.461141401832323</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.70330366525012</v>
+        <v>18.03421303505089</v>
       </c>
       <c r="G14">
-        <v>19.3108078165305</v>
+        <v>19.22354087699757</v>
       </c>
       <c r="H14">
-        <v>6.745437514032327</v>
+        <v>6.720511496397187</v>
       </c>
       <c r="I14">
-        <v>3.055947105735605</v>
+        <v>2.963454447591175</v>
       </c>
       <c r="J14">
-        <v>8.649498030456272</v>
+        <v>8.488956432840766</v>
       </c>
       <c r="K14">
-        <v>13.9162306688457</v>
+        <v>13.41347880905632</v>
       </c>
       <c r="L14">
-        <v>6.131136763079921</v>
+        <v>10.78086476493028</v>
       </c>
       <c r="M14">
-        <v>14.53349644967489</v>
+        <v>9.018863860985123</v>
       </c>
       <c r="N14">
-        <v>6.1123067301122</v>
+        <v>6.0916331765095</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.59967570877557</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.259076516665931</v>
       </c>
       <c r="Q14">
-        <v>13.58975336941667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.1150235421372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.12615821392179</v>
+        <v>17.09896379336908</v>
       </c>
       <c r="C15">
-        <v>9.764794849371421</v>
+        <v>9.647455651372653</v>
       </c>
       <c r="D15">
-        <v>6.286448118296163</v>
+        <v>6.372397716122169</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.57465741591807</v>
+        <v>17.943123531381</v>
       </c>
       <c r="G15">
-        <v>19.15967173273492</v>
+        <v>18.94399092417825</v>
       </c>
       <c r="H15">
-        <v>6.976563191486113</v>
+        <v>6.951520644892238</v>
       </c>
       <c r="I15">
-        <v>3.078021999532495</v>
+        <v>2.983713437161599</v>
       </c>
       <c r="J15">
-        <v>8.634873688966827</v>
+        <v>8.513834724985474</v>
       </c>
       <c r="K15">
-        <v>13.89031380954401</v>
+        <v>13.4057476386377</v>
       </c>
       <c r="L15">
-        <v>6.140025247985391</v>
+        <v>10.77734874441683</v>
       </c>
       <c r="M15">
-        <v>14.48170399003004</v>
+        <v>9.002262435044415</v>
       </c>
       <c r="N15">
-        <v>6.014539080851265</v>
+        <v>6.102577015506666</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.54674190321125</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.159417576715655</v>
       </c>
       <c r="Q15">
-        <v>13.54143409690757</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.09210944795385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.59466921252856</v>
+        <v>16.57078526062374</v>
       </c>
       <c r="C16">
-        <v>9.613239501218384</v>
+        <v>9.487611008333483</v>
       </c>
       <c r="D16">
-        <v>6.193803512698858</v>
+        <v>6.248630743569219</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.65844611908225</v>
+        <v>18.14007144942432</v>
       </c>
       <c r="G16">
-        <v>19.32197818828757</v>
+        <v>18.52997457032025</v>
       </c>
       <c r="H16">
-        <v>6.787832368236602</v>
+        <v>6.757145764459785</v>
       </c>
       <c r="I16">
-        <v>3.16711139146011</v>
+        <v>3.060975193252395</v>
       </c>
       <c r="J16">
-        <v>8.710220723564355</v>
+        <v>8.739125319040337</v>
       </c>
       <c r="K16">
-        <v>14.05044540280523</v>
+        <v>13.5979079801533</v>
       </c>
       <c r="L16">
-        <v>6.126083053980555</v>
+        <v>10.90552595394583</v>
       </c>
       <c r="M16">
-        <v>14.08572844669978</v>
+        <v>9.128512525106714</v>
       </c>
       <c r="N16">
-        <v>5.985664643211574</v>
+        <v>6.088539470325879</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.15586033680984</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.131088040489349</v>
       </c>
       <c r="Q16">
-        <v>13.6703411930824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.29326264386917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.30214412770162</v>
+        <v>16.27515065366968</v>
       </c>
       <c r="C17">
-        <v>9.411910873767516</v>
+        <v>9.282344321301652</v>
       </c>
       <c r="D17">
-        <v>6.280269679859325</v>
+        <v>6.323696577342712</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.00578073672672</v>
+        <v>18.51296355340704</v>
       </c>
       <c r="G17">
-        <v>19.78640336412012</v>
+        <v>18.74615317350759</v>
       </c>
       <c r="H17">
-        <v>6.090494421030001</v>
+        <v>6.053270149018975</v>
       </c>
       <c r="I17">
-        <v>3.21539575695493</v>
+        <v>3.103366631280557</v>
       </c>
       <c r="J17">
-        <v>8.813165404645366</v>
+        <v>8.905776458041831</v>
       </c>
       <c r="K17">
-        <v>14.25869119060197</v>
+        <v>13.80063970005163</v>
       </c>
       <c r="L17">
-        <v>6.099803118853585</v>
+        <v>11.0474279375023</v>
       </c>
       <c r="M17">
-        <v>13.8050346671615</v>
+        <v>9.277700153182018</v>
       </c>
       <c r="N17">
-        <v>6.174871864335066</v>
+        <v>6.057978681883529</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.88172447526878</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.324485244055989</v>
       </c>
       <c r="Q17">
-        <v>13.89354454590009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.53074361640714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.19554614267526</v>
+        <v>16.15790327751218</v>
       </c>
       <c r="C18">
-        <v>9.144564695041982</v>
+        <v>9.015666421008776</v>
       </c>
       <c r="D18">
-        <v>6.530783421495758</v>
+        <v>6.572088587486606</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.6396468209996</v>
+        <v>19.12074597819947</v>
       </c>
       <c r="G18">
-        <v>20.59455503763265</v>
+        <v>19.4056629501294</v>
       </c>
       <c r="H18">
-        <v>4.916084983210363</v>
+        <v>4.868824161969801</v>
       </c>
       <c r="I18">
-        <v>3.222706945151495</v>
+        <v>3.107113890578788</v>
       </c>
       <c r="J18">
-        <v>8.956894956373535</v>
+        <v>9.066241873433949</v>
       </c>
       <c r="K18">
-        <v>14.55288320419722</v>
+        <v>14.06224749012609</v>
       </c>
       <c r="L18">
-        <v>6.100496148428295</v>
+        <v>11.23899911130755</v>
       </c>
       <c r="M18">
-        <v>13.59361678728538</v>
+        <v>9.478111050018319</v>
       </c>
       <c r="N18">
-        <v>6.591509864931852</v>
+        <v>6.049411033302592</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.68062727586601</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.748778210350065</v>
       </c>
       <c r="Q18">
-        <v>14.23692554295605</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.85410384980322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.23766880803008</v>
+        <v>16.18378967129082</v>
       </c>
       <c r="C19">
-        <v>8.890467177650532</v>
+        <v>8.765898705451884</v>
       </c>
       <c r="D19">
-        <v>6.895659826386175</v>
+        <v>6.939922249796274</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.43757201252967</v>
+        <v>19.86006370951016</v>
       </c>
       <c r="G19">
-        <v>21.58532840180056</v>
+        <v>20.28519229286945</v>
       </c>
       <c r="H19">
-        <v>3.577680554803621</v>
+        <v>3.514600740325036</v>
       </c>
       <c r="I19">
-        <v>3.212372423824168</v>
+        <v>3.099007150539198</v>
       </c>
       <c r="J19">
-        <v>9.118230891690196</v>
+        <v>9.217256225646327</v>
       </c>
       <c r="K19">
-        <v>14.89510836270199</v>
+        <v>14.35319765051717</v>
       </c>
       <c r="L19">
-        <v>6.18070590301864</v>
+        <v>11.4563552851301</v>
       </c>
       <c r="M19">
-        <v>13.46616055872657</v>
+        <v>9.705141081276459</v>
       </c>
       <c r="N19">
-        <v>7.189784804901494</v>
+        <v>6.115520173477469</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.56615077697641</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.357284061543148</v>
       </c>
       <c r="Q19">
-        <v>14.64026096844575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.21575610339002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.70938289991996</v>
+        <v>16.6245388576989</v>
       </c>
       <c r="C20">
-        <v>8.633846090940223</v>
+        <v>8.521891470732857</v>
       </c>
       <c r="D20">
-        <v>7.549302702088151</v>
+        <v>7.610125600752488</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.71810922386085</v>
+        <v>20.98864970417789</v>
       </c>
       <c r="G20">
-        <v>23.13964719031824</v>
+        <v>21.85135723268559</v>
       </c>
       <c r="H20">
-        <v>2.311149937980523</v>
+        <v>2.229935226037051</v>
       </c>
       <c r="I20">
-        <v>3.121018307625551</v>
+        <v>3.019063631284782</v>
       </c>
       <c r="J20">
-        <v>9.338023518551454</v>
+        <v>9.331651066268467</v>
       </c>
       <c r="K20">
-        <v>15.38951277190433</v>
+        <v>14.73580703561299</v>
       </c>
       <c r="L20">
-        <v>6.459665837623778</v>
+        <v>11.72411944000257</v>
       </c>
       <c r="M20">
-        <v>13.56730029392056</v>
+        <v>10.042691592145</v>
       </c>
       <c r="N20">
-        <v>8.224602738621257</v>
+        <v>6.366959353786693</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.68724423610789</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.410291879497626</v>
       </c>
       <c r="Q20">
-        <v>15.23453817273205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.70333032204942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.71564403322527</v>
+        <v>17.61925170131093</v>
       </c>
       <c r="C21">
-        <v>8.785564872866242</v>
+        <v>8.697696878170452</v>
       </c>
       <c r="D21">
-        <v>7.898379504476067</v>
+        <v>8.030510371396336</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.03680939184665</v>
+        <v>20.99269704900516</v>
       </c>
       <c r="G21">
-        <v>23.43610675250155</v>
+        <v>23.50322925504102</v>
       </c>
       <c r="H21">
-        <v>2.074158559810782</v>
+        <v>2.013426324228432</v>
       </c>
       <c r="I21">
-        <v>2.954207051239409</v>
+        <v>2.877145317321863</v>
       </c>
       <c r="J21">
-        <v>9.297080085031926</v>
+        <v>8.77807453462994</v>
       </c>
       <c r="K21">
-        <v>15.30775388199066</v>
+        <v>14.49794327215976</v>
       </c>
       <c r="L21">
-        <v>6.539437674808636</v>
+        <v>11.48759551431156</v>
       </c>
       <c r="M21">
-        <v>14.25324778996532</v>
+        <v>9.985634540529119</v>
       </c>
       <c r="N21">
-        <v>8.590995662539866</v>
+        <v>6.431622223039672</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.36740751685529</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.785963105500262</v>
       </c>
       <c r="Q21">
-        <v>15.24557726305814</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.49306531764639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.34220686804773</v>
+        <v>18.24066919445366</v>
       </c>
       <c r="C22">
-        <v>8.884385693286587</v>
+        <v>8.807783859961377</v>
       </c>
       <c r="D22">
-        <v>8.092807827419032</v>
+        <v>8.274488506325916</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.21620238163134</v>
+        <v>20.95388771201523</v>
       </c>
       <c r="G22">
-        <v>23.60747332389397</v>
+        <v>24.7124727675943</v>
       </c>
       <c r="H22">
-        <v>1.934824868027364</v>
+        <v>1.887071153932233</v>
       </c>
       <c r="I22">
-        <v>2.83864325427561</v>
+        <v>2.77504858997454</v>
       </c>
       <c r="J22">
-        <v>9.267716460625651</v>
+        <v>8.465708168881545</v>
       </c>
       <c r="K22">
-        <v>15.24832890822009</v>
+        <v>14.32975312227842</v>
       </c>
       <c r="L22">
-        <v>6.576646662451704</v>
+        <v>11.32948567686035</v>
       </c>
       <c r="M22">
-        <v>14.68420222416059</v>
+        <v>9.945838277684805</v>
       </c>
       <c r="N22">
-        <v>8.774745923485403</v>
+        <v>6.460181897632126</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.79309821428791</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.97531761810094</v>
       </c>
       <c r="Q22">
-        <v>15.2453356821676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.33668102562138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.01670960129209</v>
+        <v>17.91611779924053</v>
       </c>
       <c r="C23">
-        <v>8.81966573354482</v>
+        <v>8.740429383567424</v>
       </c>
       <c r="D23">
-        <v>7.988084241885051</v>
+        <v>8.135676834949642</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.14265705665044</v>
+        <v>21.02354367388648</v>
       </c>
       <c r="G23">
-        <v>23.55190858024863</v>
+        <v>23.92749378779528</v>
       </c>
       <c r="H23">
-        <v>2.008130119268616</v>
+        <v>1.952822842494304</v>
       </c>
       <c r="I23">
-        <v>2.88872424157735</v>
+        <v>2.815155795574654</v>
       </c>
       <c r="J23">
-        <v>9.289299956594776</v>
+        <v>8.671174244484714</v>
       </c>
       <c r="K23">
-        <v>15.29577784567939</v>
+        <v>14.44658399114435</v>
       </c>
       <c r="L23">
-        <v>6.559278632965036</v>
+        <v>11.43096162683829</v>
       </c>
       <c r="M23">
-        <v>14.45089031840826</v>
+        <v>9.990118224159549</v>
       </c>
       <c r="N23">
-        <v>8.672575700837779</v>
+        <v>6.4478435270566</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.56478194930272</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.869981060230621</v>
       </c>
       <c r="Q23">
-        <v>15.26030560452956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.45404894582462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.71485736118622</v>
+        <v>16.62831112125109</v>
       </c>
       <c r="C24">
-        <v>8.591476256019194</v>
+        <v>8.473163458031546</v>
       </c>
       <c r="D24">
-        <v>7.582877752578296</v>
+        <v>7.643591091487159</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.84210970134042</v>
+        <v>21.10691726753154</v>
       </c>
       <c r="G24">
-        <v>23.30878456912603</v>
+        <v>21.99982992117326</v>
       </c>
       <c r="H24">
-        <v>2.293469038237244</v>
+        <v>2.212089061924448</v>
       </c>
       <c r="I24">
-        <v>3.102813687298089</v>
+        <v>2.997516568351153</v>
       </c>
       <c r="J24">
-        <v>9.366824887704425</v>
+        <v>9.361495676185886</v>
       </c>
       <c r="K24">
-        <v>15.45838783520661</v>
+        <v>14.79723148015598</v>
       </c>
       <c r="L24">
-        <v>6.488136119094063</v>
+        <v>11.77019959898662</v>
       </c>
       <c r="M24">
-        <v>13.53965392493246</v>
+        <v>10.09013186574362</v>
       </c>
       <c r="N24">
-        <v>8.283595081958378</v>
+        <v>6.393414492980205</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.66092506428853</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.470526584370674</v>
       </c>
       <c r="Q24">
-        <v>15.3055596782305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.76969465213861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.18311260351745</v>
+        <v>15.13313103413267</v>
       </c>
       <c r="C25">
-        <v>8.339339732387325</v>
+        <v>8.106961992337546</v>
       </c>
       <c r="D25">
-        <v>7.124064574783453</v>
+        <v>7.175077173610686</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.55017319311945</v>
+        <v>20.92482670496018</v>
       </c>
       <c r="G25">
-        <v>23.10344607065861</v>
+        <v>21.82640645386828</v>
       </c>
       <c r="H25">
-        <v>2.615591712577981</v>
+        <v>2.514114661289577</v>
       </c>
       <c r="I25">
-        <v>3.346851844480251</v>
+        <v>3.215466868544854</v>
       </c>
       <c r="J25">
-        <v>9.462469973626062</v>
+        <v>9.489096704054591</v>
       </c>
       <c r="K25">
-        <v>15.65294684595591</v>
+        <v>15.04723819699286</v>
       </c>
       <c r="L25">
-        <v>6.408347629312103</v>
+        <v>12.05718411296021</v>
       </c>
       <c r="M25">
-        <v>12.48184320120283</v>
+        <v>10.13601398625677</v>
       </c>
       <c r="N25">
-        <v>7.845534199541857</v>
+        <v>6.324727352932189</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.58483186378731</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.024062345332879</v>
       </c>
       <c r="Q25">
-        <v>15.38227330880317</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.91562196785511</v>
       </c>
     </row>
   </sheetData>
